--- a/data/prospects.xlsx
+++ b/data/prospects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Desktop\MLB Prospect Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan.boyd/Documents/GitHub/MLB_Scout_Predictions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C179E-E837-477D-9214-5F9F71D0F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BB9CB-0892-0040-9529-05E35D10CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{F68AEE33-6C8B-4D5F-A198-489562DFEBE9}"/>
+    <workbookView xWindow="2380" yWindow="4420" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{F68AEE33-6C8B-4D5F-A198-489562DFEBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="3031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6788" uniqueCount="3473">
   <si>
     <t>team</t>
   </si>
@@ -22404,13 +22404,3119 @@
   </si>
   <si>
     <t>Hall has the tools to stick at short; his sure-handed, reliable glove skills and double-plus running ability will carry the profile--he shows the ability to make contact at the plate with bat-to-ball skills, but it's more inside-out bleeders and bloops than consistent line drives. The running ability Hall shows on the basepaths is not always present in the field; an eventual outfield move may help maximize his legs. If he can improve the quality of his contact, there is the chance for an MLB regular role, but more than likely it's a utility middle infield type long-term.</t>
+  </si>
+  <si>
+    <t>Bruce Zimmermann</t>
+  </si>
+  <si>
+    <t>2017 Draft Round 5</t>
+  </si>
+  <si>
+    <t>Physically-developed frame with no projection remaining; sturdy with square shoulders; high waist and long limbs. Thick, muscular thighs and legs. Shows average athleticism on the mound; frame reminiscent of Tom Gorzelanny.</t>
+  </si>
+  <si>
+    <t>Smooth, quiet delivery. High 3/4 arm slot from the left side with moderate effort; repeats delivery exceptionally well from the wind-up as well as the stretch; conventional movements but quick arm speed yields some deception. Glove stays at the waist through the motion; works mostly from the third-base side of the rubber.</t>
+  </si>
+  <si>
+    <r>
+      <t>91-93 t94 with sink and modest run. Uses all four quadrants with it; often attacks the bottom of the zone. Margin for error is minimal with velocity and modest movement; likely to play average.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Distant fourth offering sits 79-84; sits well below-average. Lacks consistent desired velocity; tends to get slurvy action when thrown at the upper-velocity band; lacks consistent shape and feel. Used sparingly.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringy offering; 84-85 with modest horizontal tilt; lacks late, sharp bite; tends to get slurvy and overlap curveball path. Shows ability to throw for strikes; attacks the outer third to lefties.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>83-85 with feel and fade; shows ability to throw for strikes as well as bury down in the zone. Catches hitters out in front consistently; enhances the fastball with consistent arm speed and deception.</t>
+  </si>
+  <si>
+    <t>Above-average control and average command; shows ability to fill the zone with three of his four offerings; moves the fastball around and shows self-awareness with his usage. Pitchability-type.</t>
+  </si>
+  <si>
+    <t>Zimmermann lacks a carrying tool outside of his above-average control, which may cause him to struggle long-term in the big leagues when he needs a swinging strike. Reaching the big leagues in 2020, there is little Zimmermann needs to do development-wise in order to reach his performance projection. He's not going to miss a ton of bats with his stuff, so locating and sequencing effectively will be vital to his success. There is a small window for a backend starter role, but the most likely outcome is a spot-starter long-term.</t>
+  </si>
+  <si>
+    <t>Drew Rom</t>
+  </si>
+  <si>
+    <t>Tall; wiry build. Broad shoulders that slope; high waist; long levers; average core and upper body strength. Above-average athleticism. Plenty of room to fill out and get stronger. Former standout HS soccer player. Intelligent. Strong work ethic.</t>
+  </si>
+  <si>
+    <t>Semi-windup; above-average arm-speed; 3/4 arm slot with moderate effort delivery. Long stride with good extension. Crossfire finish and deep hand break yield impressive deception.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sits 88-91 t92; mostly upper-80s. High efficiency; well above-average backspin; good movement profile. Shows tailing action up and moderate sink low. Tough to square; tough to lift; keeps the ball in the yard and often on the ground. Projects solid average command; overall quality padded by movement and deception. Below-average velocity will give him a smaller margin for error at the big league level.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sits 78-83; manipulates movement showing 2/8 depth with tight rotation and late bite. Occasionally drops his arm slot down a tick yielding more traditional slider shape; primarily short horizontal single plane break. The sweepy breaker is commanded well and leaned on heavily; often thrown back-to-back and in FB counts when he's behind. He's comfortable backdooring it and back-footing it. Likely a solid average offering; I'm bullish and see above-average potential.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Underutilized. Sits 83-85. Inconsistent but shows feel. Maintains arm speed; tunneled nicely off FB. Unpredictable late tumble and fade at its best. Pounded low out of the zone as a chaser; potential to eats bats and generate weak ground balls in the lower third. Significant gap between what is and what could be; has shown significant gains since draft day.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Advanced pitchability. Does his best to live on the corners. Attacks all four quads; frequently adjusts eye level. Pitches backwards in FB counts; occasional slurve happy sequencing. Locates FB well glove-side; occasionally struggles arm-side and up in the zone. Secondary command surprisingly not far behind FB. Overall command will have to exceed average to have impact at the big league level.</t>
+  </si>
+  <si>
+    <t>Crafty pitchability southpaw that could easily surpass my modest expectations. Backend SP highest outcome ceiling with velocity bump, consistency gains within secondaries and improved command. Big league spot starter or long reliever a more likely outcome.</t>
+  </si>
+  <si>
+    <t>Zac Lowther</t>
+  </si>
+  <si>
+    <t>Thick, unathletic build. Broad shoulders but heavy through the midsection. Lower body is well developed. Not much more room for projection. Weight could be a blessing or a curse: Has the body of a durable starter but could get away from him without proper maintenance. Mid-section will need to be area of focus.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Low-maintenance, repeatable delivery. 3/4 arm slot with a whippy arm motion. Calm mound presence. Starts on the third base side of the rubber. Slight rocker step with the hands staying at the chest through the balance point. High leg kick that extends straight down to his plant foot. Gets good drive to the plate in his lower body. Hips get through the throwing zone well. Arm can lag at times causing pitches to sail.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>88-91 MPH. Relies more on movement and deception than velocity. Above average spin rates makes ball appear to jump out of his hand. Consistently around the plate. Moves the fastball around the zone with confidence. Throws black to black with authority. At his best when throwing down in the zone but not afraid to throw to upper third and change eye levels. Command of the fastball is already above average.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slow and loopy 73-77 MPH. Really tough on lefties. Will throw in any count. Drops it into the zone at will. Can generate swings and misses because of above average command. When thrown to the bottom third, can be an above average offering.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>78-82 MPH. Thrown slightly harder than the curveball with different tilt. Used more as a chase pitch than one that gets dropped in for a strike. Not quite as effective as the curveball but can be used as a weapon against righties or lefties.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>83-85 MPH work in progress. Has enough separation off the fastball to be effective. Command of his changeup lags far behind the fastball. More of a show-me pitch but could flash average with work.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Polished for his age and doesn't get rattled. Knows how to set up hitters and induces a lot of soft contact. Command of the fastball has flashed plus. Has confidence to throw it in any situation despite lack of velocity. Command of the secondaries lacks consistency. Will need to show the ability to throw his curveball and slider more consistently in the zone to hit his ceiling. High baseball IQ and knows how to pitch.</t>
+  </si>
+  <si>
+    <t>What Lowther lacks in premium velocity, he makes up for with a four-pitch mix that has allowed him to have success as he's advanced through the Orioles system. His strikeout numbers are a testament to the spin rate on his fastball and his ability to move the ball around the zone. Lowther is an interesting prospect for a couple of reasons. He already has an advanced feel for how to pitch but due to his law of plus stuff, his margin for error against big league hitters will be considerably smaller. You have to admire a guy who gets the most out of his talent and that is exactly what Lowther is going to do. He may never be more than a back-of-the-rotation starter or swingman, but he likely will become a valuable member of the Orioles staff in the near future.</t>
+  </si>
+  <si>
+    <t>Tyler Nevin</t>
+  </si>
+  <si>
+    <t>Tall frame; square shoulders; lean, mature strength over bulk; durable build. Plus makeup. Average athleticism and instincts. Has bloodlines: son of former first overall pick and All-Star Phil Nevin. Injury history includes: Tommy John surgery in High School, hamstring (2016), broken hand (2017) and two separate quad injuries (2018).</t>
+  </si>
+  <si>
+    <t>Square stance; high hands; busy setup; upright stance and wide base. Deep load and modest toe-tap trigger. Quick strong hands generate plus bat speed. Impressive hand eye coordination; smooth swing; great extension. Solid bat-to-ball skills. Long levers naturally yield a rather long swing, making him susceptible to average or better off-speed. Advanced approach: patient not passive; shows the ability to walk at a solid clip and limit strikeouts. Grinds out long at-bats. Polished hitter that should easily reach his projected ceiling at the plate.</t>
+  </si>
+  <si>
+    <r>
+      <t>Shows above-average raw in BP; HR predominately to the opposite field. Hits the ball hard often, just fails to consistently lift. All fields line drive approach; swing plane and approach limit over-the-fence game time pop. Shows the ability to produce a respectable amount of extra-base hits, but likely just a fringe-average tool against big league pitching.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Likely a 1B only profile; has also received reps at 3B and corner OF though. Solid average defender at 1B. Shows soft hands; able to get good extension off the base; good pick; works well around the base; lacks large range but enough to play; not highly athletic but can handle 1B with ease. Slow first-step at 3B; solid body control; shows mobility to the ground; steady hands and smooth actions. Appears at times like he's playing in slow-motion; the game just speeds up on him at times. Limited looks in OF. Appears to have a solid first step; fringy reads and routes; range is slightly below-average. Ability to play there in a pinch; not optimal full time or long term. Lack of ability and limited athleticism likely push him to 1B with occasional depth spells at 3B.</t>
+  </si>
+  <si>
+    <r>
+      <t>Average arm strength, capable of starting a solid double play. Throws have carry, hold plane, accurate from the line; careful and accurate feeding pitchers at first while playing 3B. Solid average tool.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Well below-average runner down the line; takes some time to get out of the box and reach his cruising speed. Short strides; isn't a threat to steal or go first to third; won't clog the bases or run into many outs. Instinctual runner that shows slightly better than his well below-average speed.</t>
+  </si>
+  <si>
+    <t>Modest second-division regular potential if the power exceeds my expectations; more realistically a solid bench bat or platoon corner infielder that sees the bulk of his time at 1B.</t>
+  </si>
+  <si>
+    <t>Kyle Stowers</t>
+  </si>
+  <si>
+    <t>2019 Draft Round CBB</t>
+  </si>
+  <si>
+    <t>Tall, physically-developed frame with little room for additional gains;sloping shoulders with long arms; wide hips with thick thighs and legs. Some unorthodox movements in the box; frame and athleticism reminds me of Sean Casey.</t>
+  </si>
+  <si>
+    <t>Upright, open stance with feet just outside of shoulder-width; hands start at the letters but move away from the body and back heading into load; weight favors the back foot but will occasionally lunge at breaking pitches; plus bat speed but a long swing; needs to get started early. Swing and miss issues, especially against same-sided pitching and spin. Save a shortened bat path adjustment, hit tool figures to play below average.</t>
+  </si>
+  <si>
+    <t>Legitimate plus raw power that favors the pull field heavily; capable of moonshot home runs, but contact issues may suppress home run totals at the next level.</t>
+  </si>
+  <si>
+    <t>Average, steady defender in the outfield capable of making the expected plays; lacks speed necessary to cut off balls in the gap or fill a highlight tape. Mostly center currently, likely a corner spot long-term.</t>
+  </si>
+  <si>
+    <t>Plus arm; uses long levers to show carry on throws with minimal effort. Throws are accurate; arm could play at any spot in the grass.</t>
+  </si>
+  <si>
+    <t>Long, galloping strides in the outfield and on the base paths; lacks twitchy acceleration and likely to lose a step as frame reaches physical projection. Still an average runner at the next level capable of a handful of stolen bases across a full season.</t>
+  </si>
+  <si>
+    <t>Stowers' size and power are exciting, but the approach deficiencies may never allow the power to reach its true potential. Considering his struggles against lefties, a platoon or utility outfield option is a realistic outcome at the next level, with his floor being an organizational soldier-type.</t>
+  </si>
+  <si>
+    <t>Alexander Wells</t>
+  </si>
+  <si>
+    <t>Average height with significant lower body strength. Thick middle with wide hips, round thighs. Upper body not as strong as lower. Strong, sturdy core. Bloodlines include twin brother Lachland (LHP-MIN) who profiles similarly. His most effective body part while on the mound is between his ears; cool calm and even keeled composure.</t>
+  </si>
+  <si>
+    <t>Utilitarian, plate facing with purpose. The windup is short yet far from smooth. Strides are small, leg kicks high. Face stays locked on to catcher consistently. Head movement minimal. Rhythm, timing control are huge parts of his repertoire. Works uptempo. Stays in posture to receive ball from catcher and begin windup immediately. Initiates motion with hands middle of chest. Little deception. Finishes one-legged yet momentum influences a balanced fielding posture.</t>
+  </si>
+  <si>
+    <r>
+      <t>A pitch that gets slightly more rise than run. Can maintain high 80's velocity consistently; will scrape as high as 92. Influenced more by lower body setup than arm and shoulder. Lives on the black of the plate; will not be placed in or particularly near center of hitting zone. If used as a strikeout offering it'll be placed low to establish advantage in-count; placed higher to end a count. Spots it accurately all around the zone. Impressive command pads the offering's future value.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shows a large 12-to-6 spike curve and a tighter, slurvy offering that doesn't break planes. Cerebral approach makes breaking ball his best pitch. Uses it in any count and to effectively influence poor-timed contact. Some skill in deception here could ascend profile.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Newer offering. Not experimental but utilized least often. Moderately effective to both RHB and LHB. Needs more consistency and control to line up with rest of pitches. Can show significant spin and distance, breaking horizontally.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sits 80-84; plays 8-10mph off the FB. A refined and controlled offering. Well developed. Maintains arm speed; throws with conviction. Arm action reduces both velocity and height frustrating hitters. If ever moved to relief could excel utilizing this as his put-away pitch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Crafty pitchabilty southpaw. Pitches hit his spots with regularity, control emphasized over command. Center cut offerings are as rare as any pitcher. Rhythm is a weapon as much as any radar gun reading but Wells is not giving up a cookie regardless of count or situation. Learning from mistakes is a huge part of his game despite not making too many throughout his decorated minor league career. Has just 75 BB in nearing 500 professional innings.</t>
+  </si>
+  <si>
+    <t>Term crafty lefty invented for him. Australian who has a twin with the Twins, Wells is as interesting a story as he is a watch. Guile and experience have molded Wells into a very cerebral performer. Won't beat himself. Plays solid defense. Best control in system. Floor and ceiling not too distinctly separated and I see a back end starter who makes hitters wonder what they did wrong three times that day. Not a rebuild darling like others on this list but ignoring a multi-pitch lefty who is aggressively trying to outwit his opponents would be a mistake. If the slider gets better, he gains potential. If not, he lives with his craftiness, advanced pitchabilty and command as a long reliever or big league spot starter.</t>
+  </si>
+  <si>
+    <t>Tall, imposing frame near physical projection; well-proportioned with long arms, high waist, and thick thighs and legs. Better athlete than average for his size; moves well on the mound.</t>
+  </si>
+  <si>
+    <t>Works quickly from a 3/4 arm slot with moderate effort; crossfire action. Body starts facing the away dugout; repeats well from the windup; high leg kick and slight hitch after hand break yield deception. Falls off toward third base despite landing on the first base side of the rubber. Motion is more conventional from the stretch.</t>
+  </si>
+  <si>
+    <r>
+      <t>88-90 t91 with cutting action; not as powerful as frame would suggest; finesse and feel pitch with inconsistent command. Not afraid to go inside to right-handed hitters; used primarily in the bottom third of the zone. Gets flat when left up. Despite below average velocity band, movement and deception allow the pitch to play fringy.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>80-83 with slurvy movement. Flashes average but sits below average; lacks consistent shape and feel. Generates swings and misses at the bottom of the zone; misses are mostly horizontal. Gets hand under the pitch occasionally, causing the pitch to lack bite.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Below average flashing above-average at 83-84; overlaps slider velocity at times; straight change with limited movement. Slows arm slightly; shows ability to throw for strikes. Lacks conviction; designed to keep hitters honest against the fastball.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Average control with below average command; crossfire delivery hinders ability to consistently fill the zone and hit the glove. Changeup used rarely, especially deep in counts. Relief future possible considering heavy two-pitch mix.</t>
+  </si>
+  <si>
+    <t>Despite his tall, workhorse frame, Smith's stuff doesn't match the physicality he displays on the mound. Considering his deception and arm slot, a relief future may be the best long-term role; however, if he can find some movement and feel on his changeup, it may allow his sneaky fastball to play as a starter. More than likely, it is a long relief or low-leverage option out of the bullpen.</t>
+  </si>
+  <si>
+    <t>Zach Pop</t>
+  </si>
+  <si>
+    <t>2017 Draft Round 7</t>
+  </si>
+  <si>
+    <t>Tall athletic build; lean but sturdy frame. Broad shoulders; average upper body and core; strong lower half. Injury history includes Tommy John surgery May of 2019.</t>
+  </si>
+  <si>
+    <t>Deceptive low 3/4, almost sidearm delivery with moderate effort. Slight pause, high leg kick; hand break and impressive arm speed yield great deception. Foot strike flexed and stiff at times and arm slot occasionally wanders.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Power sinker that sat 94-98 prior to a massive velo drop before shutdown and eventual TJ surgery in May of 2019. Pounds the FB low in the zone yielding copious amounts of ground balls and weak contact. Deception and inability to square or lift of the overall quality. Every reason to believe the velo returns.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sits 84-87 with tight spin; tilt and two-plane break. Shows the ability to throw for strikes and chase. Consistent release point; works it to both sides of the plate. Thrown with confidence; not afraid to double up. Sits average and flashes above-average.</t>
+  </si>
+  <si>
+    <t>Power sinker, slider bullpen arm that could reach the big leagues as soon as next season. Legitimate high-leverage upside; more realistically a solid low-leverage groundball machine that bridges the gap to the late innings.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Power sinker, slider bullpen arm that could reach the big leagues as soon as next season. Legitimate high-leverage upside; more realistically a solid low-leverage groundball machine that bridges the gap to the late innings.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kyle Bradish</t>
+  </si>
+  <si>
+    <t>Tall and lean, long legged frame. Slender, long limbs. Shoulders straight, not overly developed. Strong midsection and torso. Big hands and long fingers. Flexible and agile off the mound. Not heavy legged side-to-side. Good mover. Can add weight just about everywhere above the belt and develop a classic innings eater body.</t>
+  </si>
+  <si>
+    <t>From set to release there is a complicated amount of movement and positioning. Slow movement out of set includes a dropping and re-raising of the glove in his chest before hips open and his legs gradually open up into facing the batter and pitching. Added to the beginning is a shrug organizing the hands. Big tilt of shoulders drives and affects release/control. Lots of steps, time between step 1 and the following ones. Strength is in the finish as it's somewhat consistent in the lower half. Good job of being behind/over the baseball into follow through. Balance on one leg decent throughout motion. Hand/wrist action similar with all offerings. Keeps ball pointed downward, away from hitters' eye.</t>
+  </si>
+  <si>
+    <t>92-94. Uses height, hand position to elicit decent rise/finish. Inconsistent placement. Spin rates low. Gets back and shoulders into FB too much, misses down too much for somebody that tall. Quicker, sharper delivery could enable him to hit perimeter of strike zone.</t>
+  </si>
+  <si>
+    <r>
+      <t>Spins hard and sharp directly off fingertips. Shows advanced control of both path and landing spot. Thrown from 79-83 mph with deception and disguised wrist thrust, can be a true knee buckler. Confidence to both start and end counts with it. Clean, consistent 12-6 drop. His best pitch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Can reach 90, utilized mostly at 85-88. Spin is horizontal but considerably flat and hittable. Development of a third pitch is a good idea. This one is present but needs work and coaching. Thrown with good deception.</t>
+  </si>
+  <si>
+    <r>
+      <t>Being a tall pitcher with a complex buildup there's not as much guidance into and around the strike zone that he's in control of. Extending into a push carries the ball way down or forces wild pitches up. Vertical issues outnumber horizontal. Learning how to sync up lower and upper body with consistency into release could very well refine this motion. Still had 120K in 101 IP. The 53BB led to a 1.42 WHIP however so it's clear that there were simply too many people on base during his time on the mound.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>4th Round draft pick in 2019 with a high quality breaking ball today. Tall, leggy but without the requisite balance to fully utilize his height, Bradish presents an excellent and developable foundation for O's pitching instructors. Too soon to tell if his breaking ball tendencies play better out of the pen or as a starter but his batting-average against was nearly 50 points higher as a SP. Good curve, natural deception, decent athleticism but overall not as much ability to aim/locate non-breaking balls.</t>
+  </si>
+  <si>
+    <t>Anthony Servideo</t>
+  </si>
+  <si>
+    <t>2B/SS/OF</t>
+  </si>
+  <si>
+    <t>Small, compact, wiry frame; spark plug type with tapered shoulders and a trim waist; short legs with twitchy movements; room to add strength throughout. Plays with emotion. Frame similar to Marco Scutaro. Grandson of former AL Rookie of the Year Curt Bleffary.</t>
+  </si>
+  <si>
+    <t>Open stance gives off Curtis Granderson sensations; hands back at the letters; chokes up slightly; small crouch forms a wide base; weight favors the back side; above-average leg kick into load; hands stay quiet throughout. Short, compact path to the zone; contact-oriented swings; allows the ball to travel deep; uses center and opposite fields often especially against same-sided pitching. Pesky hitter; will foul off good pitches and limits hacks at chase pitches. Struggles to barrel the ball consistently; slap approach; legs will allow him to steal an occasional infield hit. Below average hit tool, but ability to control counts and take free passes helps the profile.</t>
+  </si>
+  <si>
+    <t>Below average power; frame and approach are not geared for power. Over-the-fence thump favors the pull field heavily but occasionally will go to center. Legs will boost extra-base numbers, likes the ball down and in to lift and separate.</t>
+  </si>
+  <si>
+    <t>Above-average defender; moved around in college; best position is at shortstop, where he features good range going both directions. Quick transfers with solid instincts in the field. Will occasionally boot routine ground balls; fixable with continued pro instruction. Solid footwork.</t>
+  </si>
+  <si>
+    <t>Textbook throwing mechanics with good accuracy; above-average arm strength; throws through the bag. Arm would play best at shortstop or right field; would be overqualified for second base.</t>
+  </si>
+  <si>
+    <t>Home-to-first times range from above-average to plus 4.10-4.15; shows the ability to hurry infielders and will find an infield hit with his legs. Shows calculated aggressiveness; takes the extra base when he knows he can make it. Regular base-stealing threat currently that may settle down as his frame reaches projection and climbs through the minor leagues.</t>
+  </si>
+  <si>
+    <t>2020 draftee Servideo will enter 2021 with just 17 games over the previous year, suggesting there may be some rust to knock off as he gets acclimated to professional baseball. At his ceiling, he's a pest-type player that works at-bats, steals bases, and does the little things well on a baseball field. Considering his inability to barrel balls consistently, his speed, as well as the versatility he showed in college, he's more likely destined for a utility or platoon-type role at the next level.</t>
+  </si>
+  <si>
+    <t>Ryan McKenna</t>
+  </si>
+  <si>
+    <t>2015 Draft Round 4</t>
+  </si>
+  <si>
+    <t>Short and stocky. Medium frame. Sturdy, well proportioned build. Sloping muscular shoulders; strong core; thick strong lower half. Noticeable upper body strength and big strong forearms. Quick-twitch athleticism. Limited physical projection remains.</t>
+  </si>
+  <si>
+    <t>Square stance; hands above the letters; upright stance with a slight crouch and wide base. Toe tap timing mechanism during load. Quick, strong hands generate solid average bat speed. Short compact swing; quick to the ball. Linear bat path with modest loft. Has pitch recognition and knowledge of the zone; consistently walks at an above-average or better clip, padding the overall hit tool value. Patient not passive line drive approach; waits for something he can drive. Lacks discipline: below-average strikeout rates; exposed by above-average velocity and average or better secondaries. Potential fringe-average tool that's likely settles below-average. Hit tool will ultimately determine big league future and role.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fringe-average raw in BP. Approach and bat path limits over-the-fence power potential. Essentially a line drive machine that can pepper the gaps with well struck balls when he's hot. A slap and dash guy whose wheels should help him pad extra-base stats. Hit tool deficiencies likely sap overall in-game power production.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Above-average defender. Reads the ball well off the bat. Solid routes to the ball. Athleticism, instincts and double-plus speed help mitigate occasional mistakes. Covers plenty of ground; great at tracking balls to both sides and retreating back towards the wall. Occasionally tested and beat coming in on balls. Overall a solid and capable above-average defender.</t>
+  </si>
+  <si>
+    <t>Fringe-average velocity. Shows optimal carry but lacks consistency. Probably stretched in RF but solid enough to hand in a pinch. Sound fundamentals on tag-ups, gears up and gets everything behind it; max-effort throws with moderate accuracy.</t>
+  </si>
+  <si>
+    <t>Double-plus speed with regular 4.10 to 4.17 clocks down the line. Quick out of the box; reaches top speed quickly and moves well around the bases. Smart instinctual runner with a track record of taking extra bases. Will go first-to-third and stretch singles into doubles when opportunity permits. Big league stolen base potential likely significantly sapped by hit tool deficiencies; impact potential with improved consistency at the plate. Utilizes speed well on defense, gliding smoothly from gap to gap; speed helps mitigate defensive mistakes.</t>
+  </si>
+  <si>
+    <t>Hit tool maturation will ultimately influence big league role. Regardless, speed and defensive profile and impact speed are likely strong enough to provide solid role 40, platoon or bench potential.</t>
+  </si>
+  <si>
+    <t>Ryan Bannon</t>
+  </si>
+  <si>
+    <t>2B/3B</t>
+  </si>
+  <si>
+    <t>Diminutive middle infielder with some mass. Maxed out frame, thicker in the lower half.</t>
+  </si>
+  <si>
+    <t>Compact swing with a distinct uppercut bat path in all approaches. Open stance, hands start slightly above the letters. High leg kick for timing contributes to a heavy pull tendency. Swing has lots of moving parts, but he shows the ability to consistently get the barrel through the zone. Swing and miss issues are present. Controls the zone well with good plate discipline. Hit tool will play about average.</t>
+  </si>
+  <si>
+    <r>
+      <t>Above average raw power for his frame. Uppercut swing and heavy pull tendency limits his ability to use his power to all fields. More game power against left handed pitching.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utility infielder with above average speed. Good first step and instincts allow him to make the majority of routine plays in the middle infield and some at the hot corner. Good speed bolsters range in the middle infield.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Short, compact throwing mechanics contribute to a strong but inconsistent arm. Can make all throws from the middle infield and the routine plays at third base. Accuracy concerns likely limit him to 2B or SS long term.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Above-average speed with a short stride on the base paths. Good twitchy acceleration with a maxed out, short frame. Base-running instincts are lacking, but will likely be an above average runner on physical tools alone.</t>
+  </si>
+  <si>
+    <t>A small utility infielder with good physical tools. Surprising power from a small frame will make him a useful bat off the bench against left-handed pitching in situations where his defensive versatility doesn't afford him a spot in the everyday lineup. Swing and miss issues limit his ability to get to his raw power in game situations but above average plate discipline will carry an average hit tool.</t>
+  </si>
+  <si>
+    <t>AJ Graffanino</t>
+  </si>
+  <si>
+    <t>Tall lanky frame with long limbs. Short midsection and some projectability left in his overall frame. Potential to add good mass.</t>
+  </si>
+  <si>
+    <t>High contact profile is his calling card. Solid near average hit tool based on his ability to consistently make contact at high rates, albeit often with minimal impact. High load swing with quick hands allow him to get the barrel to the ball in all quadrants of the zone. Aggressive approach with high contact ability will limit both walks and strikeouts.</t>
+  </si>
+  <si>
+    <r>
+      <t>Below-average power. Swing mechanics are geared towards high contact throughout the zone, but without much lower half involvement. Lack of mass limits the raw power and his overall plate approach limits the game power. Some projectability depending on physical development but would likely always be more gap-to-gap than over-the-fence power.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Plus defender with unconventional mechanics. Stiff in the hips and core when moving laterally, but plus instincts and long limbs allow him to make all the plays at shortstop. Has a tendency to speed himself up and make the occasional mistake, but plus hands and instincts mitigate the effect of most mistakes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Above-average arm that can make all throws from deep shortstop or third base. Can erase with the rare defensive mistake with the effectiveness of his arm. Weird throwing mechanics due to long limbs and lanky build, but doesn't affect his accuracy.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Average to above-average runner based on physical tools. Long, awkward strides on the basepaths. Good speed aids his range defensively and good base-running instincts can produce some consistent double digit stolen base seasons.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Double-plus makeup shortstop whose ultimate profile will be determined by his ability to hit. High work ethic and drive to improve, and plus baseball instincts from his former major league father Tony Graffanino Most likely outcome is a plus defensive infielder with a below-average bat. Plenty of offensive projection left, and has already added some mass to his frame since the last time he played in a game environment. In all cases he is likely to be ineffective in terms of power.</t>
+  </si>
+  <si>
+    <t>Hunter Harvey</t>
+  </si>
+  <si>
+    <t>2013 Draft Round 1</t>
+  </si>
+  <si>
+    <t>Tall, large frame. Has the body you desire in a pitcher. Has put on 30 pounds since being drafted. Has worked to add muscle in his lower half. Thick legs with muscular thighs. Not much more room for growth but no issue there. Should carry weight well even later in his career. Injury history includes Tommy John surgery performed back in 07/26/16.</t>
+  </si>
+  <si>
+    <t>As with most relievers, works exclusively from the stretch. Starts on the middle of the rubber. Comes set with his front foot slightly off centered from his back foot. Overly pronounced leg kick is a gift and a curse. Causes him to close himself off but also helps him explode towards the plate. Plant foot lands towards third base side giving him a slight cross body delivery. High effort, 3/4 arm slot with violent arm action. Prototypical hard-throwing reliever but is injury prone.</t>
+  </si>
+  <si>
+    <t>There are live arms and then there is Hunter Harvey's arm. Double-plus velocity. Heavy four-seamer that touches 100 and averages 97.3 MPH. Generates average spin rates. Above-average vertical movement. Throws to all quadrants with fringe-average command. Will ride it up in the zone with no fear. Go-to pitch that can be dominant at times.</t>
+  </si>
+  <si>
+    <r>
+      <t>Hard 82-85 MPH with 12-6 movement. Velo isn't a concern when used off of the fastball. Used almost exclusively against righties. More of a show-me pitch but has flashed as a weapon. Will need much more consistency.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Thrown between 88-90 MPH with some sinking action. Rarely thrown and with below average command. A change in grip to a traditional sinker makes more sense. Firm, below-average offering.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Command of the fastball is solid. Confidence to throw his most reliable offering in any situation. Secondary offerings are more control than command at this point. Will climb the zone to change eye levels. Development of a quality secondary offering could mean the difference between being a closer and just another hard-throwing reliever.</t>
+    </r>
+  </si>
+  <si>
+    <t>A 2013 draftee out of Bandys High School in North Carolina, Harvey has worked hard in the weight room to develop his body. He made the switch from starter to reliever due to injury concerns and has had some success, albeit in small sample sizes. Harvey has a lightning bolt for an arm, as evidenced by his ability to touch 100 MPH with his fastball. He has a violent, high effort delivery that makes him prone to injuries but when he puts it together he has the ceiling of a high-leverage bullpen arm. The range of outcomes here is fairly wide, but if Harvey can stay healthy he has the raw stuff to be a high leverage reliever for the Orioles. He made his debut in 2019 but has retained rookie eligibility. Should begin the season in the Baltimore bullpen next year.</t>
+  </si>
+  <si>
+    <t>Isaac Mattson</t>
+  </si>
+  <si>
+    <t>2017 Draft round 19</t>
+  </si>
+  <si>
+    <t>Ideal frame. Big strong, sturdy frame. High waist; long levers. Broad shoulders; strong upper body; thick lower half. Physically maxed. Impressive work ethic; student of the game.</t>
+  </si>
+  <si>
+    <t>Stretch only; long, deceptive deep arm-circle beyond backside. Tilts to clear arm through extremely fast and powerful arm stroke. High 3/4 arm slot with high effort delivery. Repeats well. Long strider. Hides the ball well.</t>
+  </si>
+  <si>
+    <r>
+      <t>Inconsistent velocity. Occasionally sat below-average around 89-91 in '19; reportedly averaged 93 mph, scraping 96 this summer. Firm heavy life through the zone; moderate sink in the lower third. Tough to square up and drive. Avoids the heart of the plate and isn't afraid to work inside; moves the ball around the edges of the zone. Deception and command pad the overall quality.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Used sparingly over my looks. Sits 82-85 with low efficiency, low spin gyroish movement. Inconsistent execution; flashes near average, sits below-average. Modest swing and miss, predominantly against RHB.</t>
+  </si>
+  <si>
+    <r>
+      <t>Good pitch. Sits 83-85, has feel and is thrown with conviction. Maintains arm-speed with optimal velocity separation from FB. Features late tumble with solid fade at its best.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FB command is borderline above-average at times. Command of his secondary pitches significantly lags behind, near below-average. Frequently gets ahead and keeps himself in pitchers counts. Nibbles at times hunting for strikeouts. Occasional FB heavy sequencing against same-sided batters.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Older prospect that put up impressive numbers across A+, AA, AAA and the AFL in 2019. Close to a finished product and recently added to the 40-man roster, Mattson lacks a loud carrying tool but has a successful track record and the ingredients of a potential low leverage reliever.</t>
+  </si>
+  <si>
+    <t>Chris Burgess</t>
+  </si>
+  <si>
+    <t>2019 UDFA</t>
+  </si>
+  <si>
+    <t>Average height. Well built, muscular yet athletic frame with thick, powerful legs and arms. Large hands and forearms. Ample hip, chest, stronger back, backside.</t>
+  </si>
+  <si>
+    <t>Back leg bent more than front, hands held flat and low across back shoulder. Stance upright, forward focused. Timing skills consistent and hand-to-ball quickness more than adequate. Follow through created by hip turn is smooth, strong, straight. Plate coverage adequate, prefers inside. Not rushed or intimidated at plate. Will walk. Line drive hitter to all fields.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Strong enough to reach fences with ease. Base built for power, swing built for singles and long doubles. Reasonable to expect 15-18 HR/25+ Doubles. More of a run producer w/ good eye than HR hitter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Element of his game that shines with consistency. Excellent backstop and hands. Quick, purposeful pop-ups. Very very strong throwing arm. Low, accurate, glove-side throws with consistency. Called and framed at a high level. Loud communicator. Leadership skills.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Strong, accurate to the base consistently. Gets legs and lower body behind ball efficiently. Little wasted motion in rise. Overhand and low from a consistent release point. Note: GCL offenses stole at will against most catchers on most teams; he nailed 6-14 runners.</t>
+  </si>
+  <si>
+    <t>Quick to pivot into run out of the box. Average acceleration, short strider. High effort runner who tires quickly. SB totals expected to be low single digits.</t>
+  </si>
+  <si>
+    <t>High-effort and focused between the lines. Leader at the plate, in the dugout. Passionate about the game, serious about winning. Attitude player with on-base skills, power and burgeoning strike-zone skills. Body built for playing catcher and athleticism sneaky at 225lbs. Makes pitchers and lineups that much better. Lower level gem for a rebuilding system.</t>
+  </si>
+  <si>
+    <t>Kyle Brnovich</t>
+  </si>
+  <si>
+    <t>2019 Draft Round 8</t>
+  </si>
+  <si>
+    <t>Slightly above-average height. Average build with longer arms, legs, higher torso. Athletically built but little definition. Strong in the midsection. Wider forearms. Slick demeanor. Quick laterally and a non-stiff mover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87-91 t93. Low spin rate. Not featuring late action or run. Average location. Can get straight . It's not the foundation for his arsenal. Is used more so to establish or work back into counts. Providing some cut would help set up hitters as fatigue is not an issue. Shows the ability to sit low-90s in shorter bursts; making relief work a more likely outcome. </t>
+  </si>
+  <si>
+    <r>
+      <t>Power curveball that sits 81-82 and spins like a curveball but break / plane is side to side. Manipulates movement appearing like more of a slider touching 85-86. Maintains good control at 82-83; can be an out pitch. Effectively wild close to corners can confuse and elicit bad swings. Has the confidence to throw it often in any count. Cuts strike zone with angle and strong break and depth. His best, most developed, most natural pitch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Throws infrequently. Has feel; fades more than tumbles. Action isn't 'fall off the table' as much as it's a late fader. A bit more straight/flat than FB.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Has excellent mechanics and rarely misses high. Likes to let count/situation dictate his plan but always trying to a)control and b) get strikeouts; so he'll pitch to hittable areas of the plate. Prefers downward half of the zone and finishes with flair to get there. Little bit unorthodox in hip action yet has no effect on output or delivery being repeated. Doesn't appear that control will be an issue, it's solid average; command however is likely below-average.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Brash and confident with his breaking stuff in a big way, Brnovich wants to move fast and throw a strike on every pitch. The success of his breaking ball will determine both the course of his career and his role. Smart baseball instincts and steadfast refusal to beat himself have marked his amateur career. Little pro experience to this point can't be seen as a positive. Bad results or long innings known to not deter him. High character; reminds me in attitude and pitching mentality very much of Kevin Brown. Overall a potential Spot Starter or Long Reliever.</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Tall and strong with sloped shoulders and narrow hips with long skinny legs. Classic pitcher body. Frame has plenty of projection, especially in the lower half.</t>
+  </si>
+  <si>
+    <t>Extremely simple mechanics with a high leg kick. Below-average extension in the delivery and he doesn't finish with authority. Stiff hips on pivot leave some room for velocity projection with improved levers. Long arm action with an inconsistent arm slot that varies from high 3/4 to over-the-top; both have good downhill plane.</t>
+  </si>
+  <si>
+    <r>
+      <t>Above-average fastball with projection based on frame and mechanical gains. Sits 91-93, top 95. Tight four-seam spin, but flat.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Developing pitch that flashes above-average and sits fringe-average. Has good spin with late horizontal break. Projects as an out pitch that can get consistent swing and miss against left-handed batters.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Below-average pitch that plays up because of consistent arm speed and deception. Soft tumbling offering with average arm side fade. Relies on offering to keep right-handed batters off balance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Throw his entire arsenal for strikes and makes it a priority to challenge hitters in the zone in all counts. Will need to balance his aggressive approach with inconsistent command of his burgeoning changeup to limit damage.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sushi raw but physically mature with good mechanics. Extreme risk profile, but intriguing as his raw arsenal shows flashes of above-average pitchabilty and quality within the arsenal. Huge gap between what is and what could be. Development of his curveball will be necessary to neutralize right-handed batters and to differentiate him between a role-40 fringe starter and a solid middle-of-the-rotation piece. He already has a mature approach on the mound and the confidence in all his offerings to challenge hitters in all counts. Likely a slow burn that will take multiple years to develop.</t>
+  </si>
+  <si>
+    <t>Lamar Sparks</t>
+  </si>
+  <si>
+    <t>Tall athletic body; lean and strong. High waist; long limbs; square shoulders that slope; thick strong lower half. Impressive instincts and quick twitch athleticism. Moderate projection remaining, room to fill out in chest, shoulders and overall strength. Missed entire '18 season with labrum tear in his throwing shoulder.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Square stance; hands high at the ear; noisy setup; busy active hand load; crouched from a super wide base. Modest toe-tap trigger. Slightly above-average bat speed. Quick from the trigger to the contact point; not much drive or torque; swing is more hands than bottom half. Shows discipline; appears more passive than patient; handles velocity; ok at reading spin; will get caught looking at the above-average or better secondary offerings. Currently a well below-average hitter, Sparks has the ingredients of a potential fringe-average hitter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fringe-average raw in BP, with potential for more pop if his body fills out. Line-drive oriented stroke; doesn't lift the ball much; line drives have lots of top spin and don't carry; power can play from gap-to-gap as doubles variety. Hit tool deficiencies and current lack of strength and swing plane significantly limit over-the-fence power. Speed and instincts on the bases should pad extra base totals.</t>
+  </si>
+  <si>
+    <t>Above-average defender. Enough speed and defensive prowess to man CF. Gets good jumps and takes solid efficient routes; speed mitigates mistakes.</t>
+  </si>
+  <si>
+    <t>An impact plus tool on draft day, an unfortunate labrum tear has sapped the overall arm strength to solid average at present. Long and loose arm action; fluid release; sets feet when throwing to get momentum behind the ball; throws on a line with optimal carry. No longer a weapon but solid average.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Impact tool. Borderline double-plus straight line speed. Quick out of the box; reaches near top speed swiftly and accelerates on the turn at first; kicks it into another gear on the bases. Wheels will turn singles into some doubles. Aggressive base stealer; immaturity can run into outs at times.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Drafted as a tooled up prep developmental piece back in 2017, Sparks has logged just 78 pro games thanks largely in part to a torn labrum that cost him the entire '18 season. The cancellation of the '20 season did Sparks no favors either as he's Rule V eligible after next season and has yet to escape complex league rookie ball. The defensive profile and speed are solid enough to keep him in the conversation, Sparks literally just needs to stay healthy, fill out and refine his swing. An intriguing lotto ticket with pop-up potential, Sparks is worth keeping an eye on next season.</t>
+  </si>
+  <si>
+    <t>Blaine Knight</t>
+  </si>
+  <si>
+    <t>2018 Draft round 3</t>
+  </si>
+  <si>
+    <t>Tall, wiry frame; significant room to add strength throughout but gains likely minimal; tapered shoulders with long, slim arms; sunken chest with a trim waist; belt buckle sits high with long, slender legs. Lacks definition throughout lower half; massive, NBA-sized feet. Near physical projection. Movements are not as loose as expected; frame reminds me of MLB reliever Carl Edwards Jr.</t>
+  </si>
+  <si>
+    <t>Comes from a high 3/4 armslot with moderate effort; Quick wind-up, downward plane, and long levers yield deception in the delivery; repeats fairly well thanks to overhead glove action prior to hand break; works quickly. Hides the ball well. Stiff arm action; slows delivery on offspeed from the stretch; uncomfortable with a true slide step. Fields his position well; ball comes nicely out of the hand. Competitor on the mound; bulldog mentality.</t>
+  </si>
+  <si>
+    <t>92-94 t95 on a downhill plane with riding life; modest armside run. Goes flat when thrown down in the zone. Will move it around all four quadrants, but inconsistent command; gets hit hard when thrown in the middle and lower thirds; overthrows occasionally. Pitch is best when he lives up in the zone.</t>
+  </si>
+  <si>
+    <t>73-76 with inconsistent shape and feel; sits below average but flashes above average occasionally with tight, 11/5 rotation. Mimics the slider movement too often; gets his hand underneath occasionally, causing the pitch to float into the right-handed batters box. Pitch likely to settle in fringy due to inconsistent feel.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>85-87 with bite; flashes plus but sits fringy. Pounds the outer third to same-sided hitters; movement tends to get loopy when thrown for strikes. Shows feel; likely to settle in at average thanks to command of the pitch.</t>
+    </r>
+  </si>
+  <si>
+    <t>81-84; lacks consistent desired velocity; shows fade but rarely generates swings and misses; often yields soft contact or foul balls. Lacks conviction; flashes average but sits below average.</t>
+  </si>
+  <si>
+    <t>Fringe-average control with below average command; throws enough strikes to avoid trouble due to walks but will misfire with the fastball and curveball more consistently than desired; shows more feel with the slider for strikes at times over the fastball.</t>
+  </si>
+  <si>
+    <t>Knight's four-pitch mix makes him an intriguing rotation option, but his tall frame and potential fastball/slider arsenal that would likely play up in a bullpen role makes his case even more curious. To stick in the rotation, feel for a third pitch is vital. His fastball is rumored to hit 97 on occasion; if that comes more consistently in a relief role there is high-leverage upside. As a starter, he's likely to be an up-and-down spot starter or long relief arm out of the bullpen.</t>
+  </si>
+  <si>
+    <t>Brenan Hanifee</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Large frame; sturdy build. Broad shoulders; long levers; high waist; strong core; power bottom. Physically mature and maxed out. Impressive athleticism: standout HS baseball, basketball and football player.</t>
+    </r>
+  </si>
+  <si>
+    <t>Semi-windup; moderate effort delivery; high 3/4 slot generates steep downward plane. Above-average arm speed; simple, quick well repeated mechanics. Long stride; great extension. Odd delivery, medium leg kick, peculiar hand break and arm action yield above-average deception.</t>
+  </si>
+  <si>
+    <t>Sits 91-94; will bump as high as 96. Shows tailing action up and heavy sink in the lower third. Tough to square up; groundball machine. Moves the ball around the zone well. Deception and command pad overall quality.</t>
+  </si>
+  <si>
+    <t>83-86 with late horizontal darting action at its best. Occasional two plane depth with bite. Works it as a chaser away from same sided batters and back foots it against LHB. Sits fringe-average; flashes average potential; not a weapon pitch at projection.</t>
+  </si>
+  <si>
+    <t>Firm offering between 86-88; maintains arm speed but lacks optimal feel. Tumbler with modest fade down in zone; usable against LHB, won't challenge average or better hitters. Clear third pitch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Showed plus command his first two minor league seasons when he simply filled the zone with heavy sinkers. Worked hard in 2019 to refine secondary pitches and eliminate prior FB heavy sequencing. Unfortunately that yielded a well below-average walk ratio. Control and command likely returns near previous mark with likely move to the bullpen.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Development of pitchability and secondary pitches needed to maximize profile and reach back of the rotation ceiling. More realistic potential ceiling is that of a long reliever or sinker slider one inning low-leverage guy; especially if the FB velocity returns. Overall a solid org soldier with a chance that should provide emergency depth for his big league club.</t>
+  </si>
+  <si>
+    <t>Elio Prado</t>
+  </si>
+  <si>
+    <t>Slender, athletic sinewy frame. Room to add significant weight/mass/muscle throughout chest, shoulders, back as maturity occurs. Longer arms/legs. Arm length stands out. Core strength not adequate. Bouncy, high energy mover on the field who has yet to transition fully from young man to man. Quick, efficient hands and wrists.</t>
+  </si>
+  <si>
+    <r>
+      <t>Waits in a coiled yet upright closed stance, knee bend slight. Hands held back and high close to the right earhole of his helmet. Advanced hand speed through hitting zone shows little reach/wasted motion. Consistently meets ball with barrel. Swing plane lacks finish/uppercut. Extension/plate coverage shows potential for advanced skill set due to arm length.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strength is an issue currently. 15 XBH in his first 220 AB as a teenager with little muscle including 3 HR. Offensive skill set not power dependent, currently built for contact with room to grow. Reports include optimism on raw and potential for in-game warning track pop.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Instinctive fielder who shows a great first step. Tracking skills also advanced. Rarely takes a bad step. Routes are clean. Fundamental receiver who circles ball, gets to landing spots on time. Athletic strider. Pace, acceleration, finding ball in air seems like a veteran. A quality defender at a very early phase of development.</t>
+  </si>
+  <si>
+    <r>
+      <t>Reports vary. Puts body behind throws naturally. Average arm strength, accuracy. Fundamental thrower who can improve with more strength and practice. Glove ahead of arm.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Above-average at all aspects of running. High top speed. Excellent burst out of the box. Shift from batter to runner is compact, fluid. Low, aggressive when sliding. Hits base with force. Picks spots to run intelligently. Potential for double digit SB total.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Long way to go but lots of positives already. Athletic and defensively skilled as an older teen, some physical changes and offensive development could turn him into a riser before age 21/22, not a bad return for a trade deadline Andrew Cashner. Translates his natural ability to accelerate and put power into his baseball movements to the field with ease. Toolsy and far from finished all the way around but talent has scouts on notice. A solid lotto ticket worth keeping an eye on.</t>
+  </si>
+  <si>
+    <t>JC Encarnacion</t>
+  </si>
+  <si>
+    <t>Large foundation with room to add weight. Above-average height with long limbs. Strong, broad shoulders. Big arms, large hands. Leg and core strength contribute to a quick-twitch athlete with lots of raw gifts. Power hitting muscle groups developing and already strong.</t>
+  </si>
+  <si>
+    <t>Wide open stance to pitcher. Works to build power into swing by closing stance/hips as pitcher shows baseball. Hands bounce shoulder high as lots of parts are moving pre-pitch. Front toe tap initiates a longer, moderate uppercut swing through the hitting zone. Hand speed more than adequate. Plate coverage better than you'd expect with an unorthodox approach. Contact is not an issue. Placement, control and backspin are hurdles he needs to clear with consistency or develop better on-base skills.</t>
+  </si>
+  <si>
+    <t>Plus raw power is more than adequate. Capable of tape-measure shots when all aspects of swing work in coordination. Slowly increasing power numbers throughout development line up with changes in frame/weight. Needs to round out package of strength, exit velocity and run producing numbers. Development here is not near complete but gifts on display in cage work and BP sessions. Hit tool deficiencies greatly sap in-game power.</t>
+  </si>
+  <si>
+    <t>Athleticism yet to convert to consistency in defense. Plays tall, stiff in the dirt. Speed and tempo is something organization has worked on with him. Has very soft hands to receive. Timing less instinctive, more purposeful in the field. Fundamentals yet to combine into trustworthy package but progress in last two seasons has been good.</t>
+  </si>
+  <si>
+    <t>Strength not an issue. Accuracy and consistency drills throughout development will be needed to keep this part of his game sharp. Not a natural defender so body looks less coordinated in throwing motion and posture.</t>
+  </si>
+  <si>
+    <r>
+      <t>Considerably faster than appears. Doesn't explode out of the box. Strides long. Burst and acceleration better than average. Sometimes sprints with control and sometimes looks like strides are pulling instead of leading. Limby, gangly runner. Turns at the base like an athlete yet doesn't straighten out naturally.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>A long term lottery ticket that has slowly started to show signs of improvement. There are some elements to his game that are advanced and there are some, mostly in the field, that need some drilling into consistency. That process has long since started and the development has been interesting if nothing else. JC's been pro for a while and is about to turn 23. He was acquired by a different regime, years ago so there seems to be less of a clock as to when he's expected to bloom or burst. Offensively he's about to pass from raw into somewhat dependable at the plate, an accomplishment in itself. BP is a show and he can reach into the mid 400's with moonshots, outpacing much bigger, slugger types. Another factor to look at is his unique personality. A quiet athlete with a good attitude, there are lots of players quick to cheer him on and encourage him in practice settings. It seems apparent that his teammates know there's more to the package than has been shown to this point.</t>
+  </si>
+  <si>
+    <t>Zach Peek</t>
+  </si>
+  <si>
+    <t>Tall, lanky frame. Trim with sloped shoulders; long arms and legs with a high waist. Lacks definition throughout; near physical projection but not likely to add more than 10-15 more lbs.</t>
+  </si>
+  <si>
+    <t>Slings from a high 3/4 arm slot with moderate effort; delivery lacks consistent release point and timing. Hides the ball well and generates deception with extension. No fall off on the followthrough. Ball exits the hand nicely; delivery most consistent when the body stays linear toward the plate.</t>
+  </si>
+  <si>
+    <t>89-92 t94 with two variations in the same velocity band; two-seamer shows riding life similar to a conventional four-seam fastball; four-seamer has cutting action consistently yielding soft contact. Consistency with delivery would help command; overall a fringy offering with potential for average given his impressive movement.</t>
+  </si>
+  <si>
+    <t>76-78 with sweeping, slurvy action; flashes above-average but sits below average; slows arm and motion; lacks depth necessary to generate consistent swings and misses.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sits 81 with fading action; shows feel but lacks depth; enhances and compliments fastball well. Despite below average movement, fade and feel helps the pitch play up.</t>
+    </r>
+  </si>
+  <si>
+    <t>Above-average control with fringy command; fills the zone with all three pitches but inconsistencies with motion hinder command, especially with the curveball.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acquired as part of the deal that sent Bundy across the country, Peek has the chance to be a touch-and-feel starter to finesse his way through lineups. While he won't overpower or dominate, if he is able to lean on his fastball/change-up complimentary offerings, there is a chance for a long relief or spot starter role. More than likely, it's an emergency up-and-down arm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jake Lyons</t>
+  </si>
+  <si>
+    <t>2019 Draft Round 22</t>
+  </si>
+  <si>
+    <t>Large, workhorse frame. Thick, wide legs. Wide chest/midsection. Tall. Large limbed with strong hands. Country big and country strong. Lower body momentum factors 'heavily' into delivery. Athletic for size. Foot speed, lateral movement, flexibility adequate. Balance will surprise you. Very big and can move a little bit. Can field his position fairly well.</t>
+  </si>
+  <si>
+    <t>Clean and consistent delivery that features forceful hip turn/leg thrust after a short leg kick to initiate. Can generate lots of torque due to combo of height/downward plane/big legs. Starts windup straight legged and upright, elbows in an inverted triangle that meet at his glove under his chin. Quick leg kick/swing in the windup but much tighter step and turn in the stretch. Follow through is slow and rhythmic for all the power behind it, this seems to make the mph just a hair faster off the fingers. Hand position exposed to hitters a bit too long post-glove separation. Ends up balanced, in fielding posture.</t>
+  </si>
+  <si>
+    <t>Consistent 89-91; tops out at 93. Late life gaining heavy heater. Can maintain velocity through 15 outs; loses velo soon after. Has more rise than run and spin rates adequate. Gets quality extension with arm and fingers/hands fully pronated. Arm-side rise is the pitch's best feature but it's located well across the plate and kept out of the center. His most featured pitch.</t>
+  </si>
+  <si>
+    <t>A small 12-5 shape breaker that spins much more than it changes planes. Can be flat. Doesn't seem to get the dexterity and finish on it like his other pitches. Doesn't get wild, but doesn't fool many hitters and bend legs. Needs seasoning/depth/success.</t>
+  </si>
+  <si>
+    <r>
+      <t>When on can really get some strong tumble and late life. Utilizes digit strength/wrist action to spin somewhat violently. Can baffle hitters. Potential out pitch. Arm action and hand positioning dissimilar to FB. Needs more confidence but it's there to be developed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good spot-hitting skills and consistency. Doesn't center-cut many offerings. Shows guile by avoiding bad counts, finishing when he's ahead, a good sign for future development here. Intelligent situational pitcher. Needs experience.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lyons was picked extremely late after a college career that featured success without a defined role. That continued in orange and black and Lyons both started and came out of the bullpen 7 times. One start (5IP) he was part of a combined no-hitter. There are some positives despite the lack of a lengthy menu. His size and ability to use his lower half is what has already begun to work for him. Think Brad Penny/John Broxton as far as momentum. The organization has quickly helped him shed some bad weight and changed both his exercise and diet drastically so he looks a bit different but kept his legs, which is key. He can last anywhere from 30-80 pitches so that's something to mold too. Working on breaking ball depth and consistency is key and if he breaks through it will be because hitters will have to key on another pitch or plane.</t>
+  </si>
+  <si>
+    <t>Nick Roth</t>
+  </si>
+  <si>
+    <t>2019 Draft round 26</t>
+  </si>
+  <si>
+    <t>Undersized. Not excessively muscular or large in stature. Athletic lower body. Springy, quick off the mound. Excellent athlete who excelled at other hand/wrist sports like golf and tennis.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slow buildup from set position can get one-legged. Quiet yet abrupt movement initiates windup from a mid-chest hold. Hip turn is quick and efficient, core strength to gather is significant. Much effort is made to stay on top of ball and force pitches to the lower portions of the zone. Post delivery leg sweep to get balanced into a forward facing fielding posture. Little overall wasted motion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Offerings are 2-seam, 4-seam and occasional cutter. Velocity can reach as high as 93-94. 4-seamer gets late ride and utilized as an effective strikeout finisher due to large percentage of stuff being down. 2-seamer located with high level of accuracy. Spin rates and location make this his preferred pitch.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tight, small spin path occurs ahead of swings without exceptional depth. RHBs seemed especially flustered even if swings were geared up to swing late. Not a tumbler, more a way to throw a different spin or surprise a righty. Can reach low 80's but sits high 70's.</t>
+  </si>
+  <si>
+    <r>
+      <t>Reaching low-mid 90's with his heat is a gift, but control and command are Roth's best assets. Very rare to have a misdelivered pitch leading to poor location. Spots are hit often regardless of pitch or path to get there. 12.5K/BB in year one; thanks to just two walks over 21 2/3 innings.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Excelling in a role as a reliever, Roth grabbed the reins and stacked successful appearances in his first year as a pro. A late round draft pick with a high strikeout profile at Randolph-Macon University continued to finish with strikeouts in the pros. Bulldog presence who prefers to come in with runners on or pressure building. The Orioles have turned a late pick into a bullpen pitcher with a developing arsenal. A solid depth piece with a chance for more.</t>
+  </si>
+  <si>
+    <t>Toby Welk</t>
+  </si>
+  <si>
+    <t>2019 Draft Round 21</t>
+  </si>
+  <si>
+    <t>Above average height. Thick build, especially upper body. Broad, straight shoulders. Longer legged. Higher torso. Barrel chested with big hands. Wide, long developed forearms. Athleticism is adequate. Cornerman build. Not much room for more mass. Body change since draft included losing less than 10 lbs body fat, adding core strength, increasing flexibility.</t>
+  </si>
+  <si>
+    <t>Stance is crouched, height is negotiated. Closed stance. High hands, Length in swing. Path to ball is clean despite length. Plate coverage stands out. Timing mechanism (front knee/toe) can seem exaggerated. Ability to meet pitches at apex is adequate, but ability to drive them when he does is above-average. Swing plane is slightest of uppercuts.</t>
+  </si>
+  <si>
+    <r>
+      <t>Present ability to drive ball over fence with ease. Power could even increase as strike zone judgement/corresponding confidence develop. Build portends high HR/AB totals. Improved ability to drive the ball, perform in situations already. Longest/hardest hit/highest balls are pulled to LF/LCF.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Made great and necessary strides in pre-pitch positioning and reaction in first year. Transfer skills and feet adequate for third. Soft hands, good fielding posture are consistent. Barehanding, throwing off-balance, lining up body to target specific areas of need addressed successfully.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strength across diamond more than adequate. Accuracy across diamond dependent on positioning. can get stiff/high. Ability to make quick plays and speed up throws, throw from the hole.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Out of the box, base to base and top speed all average. Strides long, can steal. Speed is more a surprising part than a reliable piece.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>For a late round pick from a division 3 school (Penn State-Berks) it may appear that he's already beat the odds. Being open to coaching and learning every cage session is his reputation so he's probably going to be bringing his power bat to higher levels of the system. A little bit of slimming down has helped his game and athletic ability and he looks like he could be a scouting find that has already begun to bloom. Seeing him against higher levels of pitching has to be a priority.</t>
+  </si>
+  <si>
+    <t>Joseph Ortiz</t>
+  </si>
+  <si>
+    <t>Medium frame. Sturdy compact athletic build. Above-average athleticism; average strength for position. Baseball rat. Impressive leadership and work ethic. Physically mature.</t>
+  </si>
+  <si>
+    <r>
+      <t>Open stance that squares on load; hands high at the ear; busy active hands pre-load; upright stance with a slight crouch and wide base. Leg kick timing mechanism opens body up to clear hips on load; chokes up and shortens to a small stride or toe tap when behind in the count. Circular path to and through the ball with a two handed finish; average bat speed. Patient but often over-passive approach. Shows the ability to grind out at-bats, take his fare share of free passes and is tough to strikeout. Struggles against above-average or better velocity and secondaries. Ingredients and potential of a fringe-average hit tool, but approach and deficiencies make a below-average outcome more likely.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flashes fringe-average raw in BP, rare over-the-fence pop is predominately to the pull side. Contact oriented, all fields line drive approach. Has enough raw to turn on the occasional mistake, but extra-base power is limited to when the ball finds a gap or is hit into a corner.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Above-average defender. Smooth fluid actions. Moderate range that plays up due to good instincts. Efficiently sound footwork; quick first step; strong pivot skills; average hands; smooth quick transfers. Makes good reads; anticipates hops well; moves well to both sides and handles difficult plays okay. Capable defender anywhere on the infield dirt. Not flashy, but an adequate defender with consistent execution.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gets the job done. Clean arm actions and solid mechanics yield above-average arm-strength that's passable at short. Decent accuracy with crisp velocity and optimal carry. Has enough arm to throw over-the-top across the diamond with steam from deep in the hole.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Above-average runner; consistent 4.23 - 4.26 clocks down the line. Gets up to speed quickly and runs the bases well with solid instincts.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Potential glove first, big league utility type if the bat exceeds modest expectations and the stars align. More realistically a solid emergency depth piece that provides value to Baltimore's high minors affiliates.</t>
+  </si>
+  <si>
+    <t>Mason Janvrin</t>
+  </si>
+  <si>
+    <t>2019 Draft Round 14</t>
+  </si>
+  <si>
+    <t>Slender, sprinter/cyclist build. Lower body springy, bouncy and powerful in strides. Upper body lithe, room to build significant muscle mass in chest, shoulders, arms. Longer-legged. Fluid in movements. Core strength, power into movements belies frame size. Longer fingers, average hand size. Explosive calves. Excelled in multiple sports. Father was an Olympic track athlete and sister competed in track on international level.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stance is bent back in a coiled position. Front leg is planted on an angle as it prepares for a short stride. Back leg bent as power to swing is provided off a tight, compact hip thrust. Back elbow pointed at the umpire's mask as bat rests above the shoulder by an inch or two, the swing motion is efficient after a bit of a backswing to put it into motion. Length/angle built much more for line drives than loft. Hands/wrists control bat in a natural, field covering opposite field stroke. Contact ability and eyes are adequate.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tracks fly balls well. Seeing ball off bat, first step timing present an interesting outfield specimen. Speed to get to any ball regardless of positioning. Strides near perfect to get to landing spot. Feel for warning track, long flies while backtracking seems veteran. Can jump, slide, dive. Solid job of converting natural athleticism to the field. Shaving off minimal wasted motion could show an advanced, rhythmic CF with range.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Better than expected. Accurate. Steam to hit targets from warning track in air/one bounce and have glove sound indicate sizzle. Puts legs and lower body behind the motion and gets all of body into release. Throws with effort.</t>
+    </r>
+  </si>
+  <si>
+    <t>Impact tool; impressive double-plus speed. Quick out of the box into sprinting position. Gets up to a high top speed in a stride and a half. His speed is more of a weapon than an asset. Ideal for an extra inning, runner on 2nd situation.</t>
+  </si>
+  <si>
+    <t>Rare, athletic combo of unique skills and bloodlines present an elite level mover between the lines. Janvrin could not be thrown out or even kept in check by GCL backstops in year one. He will likely never develop into consistent power; and hit tool projection will be tested as he climbs the ladder. He'll have to prove he can hit at every stop, but his sound defense and game changing speed are enough tools to keep him a shot to exceed a future that's likely capped in the upper minors.</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>Red Sox</t>
+  </si>
+  <si>
+    <t>John Calvagno</t>
+  </si>
+  <si>
+    <t>Improved conditioning in 2020, looked toned and chiseled at the alternate site, 6'5" 240 lbs and is particularly strong in the lower half. He's nearly maxed out physically but reverse projection and improved conditioning leaves room for another 5-10 pounds of good weight in the upper body.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Closed, slight crouch, chokes up slightly. hands at his chest, quiet. Slight rocking as he raises his hands and back elbow at coil. Utilizes a small leg kick at launch. Nice fluid, easy swing. The bat stays in the zone for a long time. Hits the ball where it's pitched. Patient. When he did expand his zone it was typically chasing spin from a lefty. His two-strike swing has a more extreme crouch and minimal load. Long levers will struggle with spin. Overall above average tracking and bat to ball skills.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Strong hands and quick wrists lead to above average bat speed with lift. The ball explodes off of his barrel. Capable of hitting the ball out to all fields in any park. Elite strength, has the ability to drive balls to his pull-side even in shortened two-strike approach setup.</t>
+  </si>
+  <si>
+    <t>First base only player but shows very good hands and feet around the bag, solid range for now but that will worsen over time. Played some third base at the alternate site but is highly unlikely to play there outside of a roster pinch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Reportedly sat low 90's on the mound in high school. During a previous observation a play on a foul ball in the stands, sticks out, made the catch in foul grounds and fired a missile to third base to try to nab a base runner who attempted to tag up on the play.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Relatively light on his feet for a big man but not a runner.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Casas has the potential to be an impact bat at the highest level for a long time. The carrying tool is his plus or better raw power, that's already surfaced in game and at the alternate site this summer. He has a more well rounded skillset than what you often see in a masher, with good bat to ball skills and a polished approach. Early on his career it's possible he sits vs the more difficult lefties.</t>
+  </si>
+  <si>
+    <t>Jeter Downs</t>
+  </si>
+  <si>
+    <t>2017 Draft Round CBA</t>
+  </si>
+  <si>
+    <t>An athletic 5-feet 11-inches, mature build, not much projection remaining. Lean muscle, strong throughout, muscular lower half. Strong forearms and broad shoulders, body will need some maintenance as he ages.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sets up at plate with open stance up on front toe, moderate leg lift timing mechanism and triggers hands. Quick load, sets up with hands by ear, drops quickly, doing a good job of keeping hands inside early, and extending upon contact. Pairs strong pitch recognition with hitter mentality, working deep into counts but avoiding passivity within his approach. Still prone to swing and miss, as a steep angular bat path leads to whiffs against velocity elevated. Heavy pull-middle approach, with a knack for hard, flyball contact to his pullside. Above average contact skills, strong pitch recognition, and approach should translate to above average hit tool, with outside chance for plus at maturation.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Steep bat angle and quick compact swing allow Downs to tap into pull-side power with regularity, getting backspin on balls with ease. His hardest contact and a majority of his future home runs will come to his pull-side almost exclusively. Will drive balls to the gaps to the opposite field on occasion. Should see power production translate to high teen to low 20 home run power at peak with a high number of doubles, particularly as a right handed dead pull hitter in Fenway park.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quick first step, and strong lateral movement, will make aggressive plays on balls coming in but rarely gets caught off balance on scoop and throws. Hands and actions clean enough for shortstop, but lacks the desired arm strength to stick there long term. Good enough instincts to move around the infield, or cover an outfield spot in a pinch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Below average arm, strong enough to work at second base but suboptimal throwing strength for shortstop. Makes accurate throws on the turn and should have the zip to make all the needed throws at the keystone.</t>
+  </si>
+  <si>
+    <t>Posts surprisingly average run times for a player with high stolen base totals professionally. Is more instinctual runner than burner. Won't be the same stolen base threat at the major league level he has been in the minors. Likely 10-13 steals annually early on in his career with that slowing down over time as Downs matures.</t>
+  </si>
+  <si>
+    <t>A strong overall profile with strengths on both sides of the ball. It would be easy to call Downs a bat first second baseman with his strong mix of approach, contact, and power, but he brings a slick glove and heady base running to the table, positioning himself squarely in above average role territory.</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Strong, tall frame at 6'5, 230 pounds. Very minimal projection remaining, but has an ideal pitchers body. Waist is high, limbs are long. Movements are fluid and body is athletic.</t>
+  </si>
+  <si>
+    <t>Throws from a low three-quarters arm slot, starts on first base side of rubber. Delivery includes effort, with a lengthy arm action and relatively high leg kick from the windup. Crossfire delivery, creating tough at-bats for right-handed hitters. Despite longer arm action, the arm itself is very quick and a tad deceptive. Mechanics mirror fellow Red Sox starter Chris Sale, but with the opposite throwing arm. Has struggled with maintaining mechanics throughout starts.</t>
+  </si>
+  <si>
+    <r>
+      <t>Houck throws two fastballs, a four-seam and a two-seam. Four-seamer will sit in the mid-90's and he has touched 98 MPH in the past, but the main issue with the pitch is that it is pretty straight and flat, causing it to be hit hard. He likes to locate the pitch up in the zone. The two-seamer is the better of the two pitches, with good arm-side run and sink. The pitch sits more in the lower-90's and will rely on the pitch more the farther he goes into an outing. Both offerings are low-spin, averaging around the 2,000-2,100 RPM mark. Needs to work on fastball command in the future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pitch sits in the mid-80's with serious sweeping action. Spin rate is not enormously high, averaging 2,400-2,500 RPM in 2020. Very confident in throwing to both left-handed and right-handed hitters, drawing some bad swings along the way. Has a good chance to be a legitimate, bat missing offering in his repertoire. Best offering that he brings to the table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ditched change-up for a splitter grip in 2020. Shows late downward action, but the pitch is inconsistent. Could become a very good weapon against left-handed hitters, but development of the pitch is key for that to happen</t>
+  </si>
+  <si>
+    <r>
+      <t>Due to the moving parts in his delivery, his control/command is relatively spotty and can be inconsistent. Will need to refine moving forward if he wants to avoid a demotion to the bullpen.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Certainly has a solid fastball/slider combination to get outs, but lack of third pitch right now makes it tough for him to remain in the rotation long term. With further development of the splitter, chances that he sticks in the backend of the rotation are higher. If he becomes a bullpen piece, likely will be a high leverage arm to rely on.</t>
+  </si>
+  <si>
+    <t>Bobby Dalbec</t>
+  </si>
+  <si>
+    <t>Big frame with broad shoulders and long, strong legs; Baby-faced but body looks near full maturity; Sneaky athleticism for a big kid; Actions are smoother than you might expect</t>
+  </si>
+  <si>
+    <r>
+      <t>Stance is tall with hands high, behind his ear; slight rock moves bat in a tight circle while the front foot taps; Average base with waist-high leg kick and noticeable coil; steps directly at pitcher. Good bat speed with loft in the swing. Pulverizes fastballs but struggles with anything that spins and will chase it off the plate; will K often. Patient hitter who will take a walk; Swings to do damage. Embodiment of a 3 true outcome hitter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strong frame helps generate great bat speed. Slight uppercut swing and homerun approach allow him to showcase his prodigious raw power; Whiffs too often to maximize it. Will wait on something he can drive; Drives the ball with authority when he connects. Max exit velocities and average EV in the top 60-70 of MLB players.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Moves well, athletic for his size; Quick enough to have a chance on liners; Flexible enough to have good range on the bag fielding throws at 1st. Knack for getting his glove on the ball. Can play 3rd, but there's probably a better defender in the org that pushes him to 1st. Reactions and athleticism might let him play LF in a pinch.</t>
+  </si>
+  <si>
+    <t>Solid arm; Quick actions; Firm and on a line across the diamond. Strong enough for 3rd, fires strikes. Can accurately deliver double play feed from first. Ball maintains carry when he can't set his feet.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sneaky quickness but you wouldn't call him fast. Won't clog the bases; Can swipe an occasional bag if the pitcher doesn't hold him.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>3 true outcome slugger corner infielder. Could play third base, but likely ends up at first base. Power is the carrying tool but his solid defense balances the profile. Likely a second-division regular given the contact issues. Could be a stud if he cleaned that up.</t>
+  </si>
+  <si>
+    <t>Jay Groome</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Very tall at 6 feet 6 inches, big bodied frame, broad shoulders, and thick proportional shape. Body will require continued maintenance and conditioning. Physique has improved from pre-Tommy John Surgery shape. Lingering injury concerns dating back to amateur days. Underwent Tommy John Surgery in May of 2018, missing the remainder of the 2018 season and a majority of 2019. Was sidelined for two months in 2017 with an intercostal strain. Without a full 2020 campaign, health and durability concerns linger. Conditioning will be paramount as his large frame puts additional strain on his endurance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Loose, easy operation, starts on the third base side of rubber, feet together, side step gives way to a high leg lift, smooth arm stroke, delivers from a slightly raised three quarters arm slot, drops and drives over his frontside with above average extension. Repeats mechanics consistently, the times when his arm is out of sync, his command waivers.</t>
+  </si>
+  <si>
+    <r>
+      <t>Slight cut on the four-seam fastball, creates significant downward plane due to physical height and release point. Sat 92-95 mph, bumping 96 mph at peak. Appears to run armside at times when thrown low in the zone with conviction. Cutting the fastball will lead to trouble against right handed dead pull hitters. Shows the ability to command the pitch to all four quadrants, comfort zone is the lower half. Late jump, and life particularly in the lower quadrants, does a good job of landing on the outside in left-on-left matchups.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-7 break, with hammer late horizontal bite. Plus velocity and movement, sits 81-83 mph with early downward vertical drop, before picking up side-spin late that sweeps the pitch glove side as it crosses the plate. Consistently gets on top of it, similar release height to fastball, with late horizontal movement matching fastball's cut. Plus command and feel. Shows the ability to manipulate shape, landing it for strikes or burying in the dirt for ugly chases. Showed the best feel for the pitch of his career during simulated games at McCoy Stadium this summer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Third offering, deployed to right handed hitters as change of pace. Inconsistent shape and movement. Struggles to consistently pronate, and it translates to a Jekyll and Hyde movement pattern. When he's able to stay on the inside of the baseball and fully pronate, he'll break off a changeup with hellacious fade. When he doesn't get inside the ball the pitch will look like a straight fastball. Sits 82-86 mph, showing a good speed separation between the off-speed and the heat.</t>
+  </si>
+  <si>
+    <r>
+      <t>Strong ability to repeat mechanics translates into strike throwing. Developed feel for curveball over the last year since returning from TJS. Ability to manipulate pitch translates to plus command and ability to hit location. Fastball command is average, inconsistency of shape and cut up in the zone are sub-optimal. Does not replicate run low in zone with frequency. Command of changeup is lacking. Will throw all pitches for strikes but doesn't always land at his given target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Arguably the top arm in the Red Sox system. Has worked hard to shape up physique, which will take maintenance. Features a three pitch mix and lands all of his pitches for strikes. Heavy four-seam + curveball focus. Will get swings and misses on both, but curveball is a major league quality out pitch. Needs to improve consistency of changeup to turn over an order twice. Conditioning questions linger due to lack of bulk innings over his professional career and his size and body type. Mid-rotation upside with middle relief floor due to strong fastball + curveball combination.</t>
+  </si>
+  <si>
+    <t>Bryan Mata</t>
+  </si>
+  <si>
+    <t>Filled out quite a bit from his A Ball days. Probably 6'3" 240 lbs. Still just 21, will have to keep an eye on his conditioning. Looks particularly thick in the lower half. Little to no projection remains in frame, will need to maintain conditioning.</t>
+  </si>
+  <si>
+    <t>Utilizes a full wind-up, including hands over head. 1B, 3/4 to low 3/4. An arm heavy delivery and a very quick arm. Lots of effort and head whack. Gets average extension. Repeats pretty well but some inconsistencies with release point. Noticeably overthrowing fairly frequently in multiple looks.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sits 92-97 mph, up to 98 mph at his peak velocity. Heavy fastball, works downhill with run and sink. Mata pitches around the zone but it's a control over command profile. His movement makes his command a struggle. More horizontal movement profile than vertical, struggled to command the pitch consistently in alternate site outings this summer. Mata could probably reach for 100+ in shorter outings, or at least push 99.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>10-5, high 70's hook with above average depth and bite when he gets on top of it. Can throw for strike or bury.</t>
+  </si>
+  <si>
+    <t>Upper 80's, late, sharp breaking at times but is inconsistent. Has potential to be a put away pitch with more refinement. New to his arsenal, didn't throw a slider while in A-Ball in 2017.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mid 80's change, looks firm and fringy but does play up some due to his ridiculous arm speed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solid control when he pitches within himself. Often releases late when he's trying to throw a pitch through a building. Below average command.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Mata has a very quick arm. He's been young for the level all the way up. Just 21 and in the high minors, so pitchability could take another step forward. There might be enough here for a #4 SP, or perhaps a high leverage reliever. Not sure how well sinkers play in today's MLB, so that might be an adjustment we see.</t>
+  </si>
+  <si>
+    <t>Noah Song</t>
+  </si>
+  <si>
+    <t>Tall, lean, and athletic, high waisted and broad shouldered, projectable frame long term, room to add good weight, without any conditioning concerns. Has had to keep up a strict physical regiment as a member of the Naval flight academy. Long levers, and room for growth.</t>
+  </si>
+  <si>
+    <t>Higher effort mechanics with violence at the point of delivery. Head whack at release, arm speeds up at end of stroke. Arm lags early on in mechanics with stroke slightly behind timing wise at foot strike. Shorter arm stroke, release point from higher three quarters arm slot, side step to leg lift that contracts into the torso, closing off the front side during rock prior to stride. Above average extension, plus arm speed, and repeatability. Song's ability to repeat, and his lack of injury history quell some of the fears around the violence in his operation.</t>
+  </si>
+  <si>
+    <r>
+      <t>Plus velocity will range from 92-97 mph from start to start. Will sit 94-96 mph for stretches and has been clocked up to 99 mph in game. Higher release point coupled with lower quadrant plan of attack will create downward plane on the pitch. Can rise and ride the fastball depending on location, showing advanced feel for the pitch. Works both sides of the plate with relative ease showing four quadrant command despite elevated velo and action. Adept at stealing strikes on the edges, and not frightened to pitch inside versus either handedness. Plus pitch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Softer breaking ball in the 75-79 mph velocity band. Loopy shape with 11-5 break, more of an early count strike stealer versus left handers on the outer-half of the plate. More of a change of pace than a true weapon in his arsenal.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tighter break with sweepy movement to gloveside. Above average velocity, sitting 83-86 mph, near 9 o'clock spin axis with late drop. Absolute soul-stealer versus right handed batters, will steal strikes on the outer half after big horizontal break. Will backdoor to righthanders, tendency to be more changeup-centric versus left handed batters. Will lose feel at times and leave the pitch elevated, hanging it without it's best shape and it will get hit. Above average offering with split-heavy usage.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>A consistent above average offering during July 2019 looks, point of emphasis in development and heavily used in right on left matchups. Showed the ability to consistently pronate landing it armside with late fade and tumble. Good arm speed sells pitch in tandem with fastball. Consistently missed bats versus left handed hitters. Command still comes and goes and he will snap off some firmer off-speed.</t>
+  </si>
+  <si>
+    <r>
+      <t>It's a control over command profile, particularly when it comes to Song's secondaries. The aforementioned struggles with his slider losing shape, and the inconsistency of his changeup soften the overall control and command grade. His fastball feel is plus, though he will sail it from time to time when elevated, he does an excellent job of working both sides of the plate. An improvement in his command of his secondaries could see these grades raise upon further observation.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>It's become cliche to utter "potential day one guy, if not for..." at this point. The proverbial elephant in the room and "if not for" in this instance is Song's military service. Song graduated from the Naval Academy in 2019, was given clearance to participate in the 2019 New York - Penn League season with Lowell before heading back to the Academy to enter Flight School. The unusual timing of the events of the last year perhaps have rendered the concerns around missed development time moot as he could return as early as the first half of 2021. What player returns and how long it takes him to regain his stuff are major questions within the profile. On the field he's an above average prospect with the pitch mix, strike throwing, ability, body and makeup to start. Whether the organization will fast track him to the majors in a relief role may depend on when he returns. If he does not return until late in 2021 or misses the season entirely there's a real chance (as he enters his age 25 season in 2022) that he's developed as a reliever with his Rule Five date looming that winter. If he returns early next season, the organization will have time to develop him as a starter for the better part of a year and half before having to make a decision on adding him to the active roster. A unique player and situation but a very talented pitcher.</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Strong, lean, athletic build; High waist with long limbs and muscled thighs. Quintessential athlete body that could play any sport. Quick, explosive, and fast. Body is mature, room for 5-10 pounds at most.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mostly upright stance, feet shoulder-width, hands low at waist; slight rock; Crouches at coil (moderate), hands travel up; Long stride, back side dips at launch position; Average bat control; some definite swing and miss; Battles in the box, patient hitter who works counts and spoils good pitches; Average grasp of strike zone. Works to find something he can drive; Enough bat speed to do damage when he squares it up</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Good bat speed generated from quick, strong hands. Swing change added loft and will let him get to more power in games. Legs to stretch plenty of singles into doubles, doubles into triples. Adjustments have heeded improved results, dropped hands this off-season from previous shoulder height load. New setup has generated an improved bat path, tighter launch angles, and an upgrade in loft and quality of contact.</t>
+  </si>
+  <si>
+    <r>
+      <t>Relatively new to OF/CF (2B in college), below-average read off the bat. Excellent range; can close on almost anything once he finds it. Routes leave something to be desired, but to be expected with inexperience. Former infielder; average actions fielding the ball, occasional misplays, gets into position to throw. Can see a path to average defense if reads and routes improve.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Solid mechanics with average arm action; accurate, stays through the ball; arm strength is fringe-average when he gets his body into it, below-average when he doesn't; some arc to long throws, can miss cut. Fine for center/left, too weak for right</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Blazing, double-plus speed. Clocked a 3.93 Home to 1st.; Quick first step, accelerates quickly and great speed underway; Lots of range for CF. Likes to run and has plenty of base stealing potential; Pitcher's nightmare on the basepaths. Should stay athletic enough to maintain most of his speed as he matures</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Terrific athlete who has dominated younger competition as a pro. No real carrying tool, more of a "sum of the parts" guy with true double-plus speed. He's got a bag full of fringe tools with a chance to be average. If the skills improve, has the talent to be an impact bat at the top of the order and 1st division CF. If they don't, he's a speed-only 4th OF.</t>
+  </si>
+  <si>
+    <t>Thad Ward</t>
+  </si>
+  <si>
+    <t>Listed 6'3" 182 lbs, that looks accurate. Long, lean and athletic with strong legs. Could add another 10-15 lbs of muscle, particularly up top.</t>
+  </si>
+  <si>
+    <t>Sets up on the first base side of the rubber, delivering from a three quarters arm slot, Ward has a fast arm and a short arm action. He creates above-average momentum and gets a strong push off generating average extension. Slight pause prior to motion, closes off front side in sped-up leg lift to drive. Everything moves, some crossfire in his arm action and fall off post-release. Has a tendency of slinging the ball. Will rush through his delivery at times.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exclusively two-seam, 92-94 mph touching 96 mph with some sink and lots of horizontal movement, fastball shows heavy run, breaking in on righthanders and away from left handed hitters. Due to rushed delivery and heavy run will lead to missing armside. Generally around the zone but control over command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>New pitch to Ward's repertoire in 2019. Showed improved feel for the pitch as the season progressed. Upper 80's with very good late bite. Frequently released late to RHH. Too easily layed off at times. Good variation to the heavy horizontal movement of his slider and fastball. Has been used in lieu of changeup over the last year.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>12-6, High 70's, fringy, just a show me pitch</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Low to mid 80's, low spin efficiency offering with gyro spin movement, breaks almost exclusively gloveside. Plus offering with the ability to get swings and misses, dangerous pairing with fastball, moving easy to west across the plate. Shows feel for the pitch with consistency and it's improved over his two years of pro-ball.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sped up operation will lose release point at times. By and large around the zone, fastball's late armside run makes it difficult to command. Has good feel for his secondaries particularly his slider, and works around the zone with the pitch, while showing the ability to bury it when needed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Everything runs toward lefties. Could be enough here for a #4 SP but a swingman between spot starter and lower leverage innings is highest proability outcome. Two average or better pitches in his slider and fastball, and a developing third pitch in his cutter.</t>
+  </si>
+  <si>
+    <t>Nick Yorke</t>
+  </si>
+  <si>
+    <t>Body is filled out for a high school draftee, but he is athletic. 6'0, 200 pounds, legs/lower half are thick with his upper body showing some projection to it. Had shoulder injury during junior year of high school that has caused some problems.</t>
+  </si>
+  <si>
+    <r>
+      <t>Many scouts adored the hit tool coming out of high school, which was one of the better hit tools amongst prepsters in the 2020 class. Has a slight leg kick as a trigger, hands start around the ears and he produces solid bat speed. Swing is compact and he has a very solid approach at the plate. Uses all fields. Currently above-average, but has a good chance to be a plus tool as he develops.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Still developing his power, with most of it being to the pull side. More power was evident in the short stint that was his senior season, and as he adds more strength to his upper body, the power will come. Likely to be an average tool moving forward.</t>
+  </si>
+  <si>
+    <t>Due to shoulder surgery and subsequent healing, likely will be limited to second base in the future. Speed hurts his range on the left side of the diamond as well. Has solid instincts in the infield and good footwork, but likely will be a bat-first player.</t>
+  </si>
+  <si>
+    <t>Arm strength was solid prior to injury, but subpar healing has caused some issues with regaining that strength. Could see more of that strength return, but the arm will be fringe-average at best currently.</t>
+  </si>
+  <si>
+    <r>
+      <t>Fastest 60 in high school was a 7.00, which is average. Likely to lose some speed as he progresses.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Will become an offensive-minded second baseman in the future. His hit tool will be his loudest asset, if he works on his opposite field pop, his power could see a better grade next to it. Arm and defensive placement will be key components to watch as he progresses through Boston's system.</t>
+  </si>
+  <si>
+    <t>Gilberto Jimenez</t>
+  </si>
+  <si>
+    <t>Extremely athletic build, with strong legs and glutes like a sprinter. Upper-body still has plenty of projection in his torso and arms. Quick-twitch, smooth and explosive, with projection to dream on. Premium physique for an outfielder, should age well.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inside out approach, looks to make contact early in the count employing an opposite field approach and using his legs to get him on base. Rarely uses his pullside, even on his best contact. Sets up open in the box with a slight crouch, uses a toe-tap from the left side and a moderate leg kick from the right. Definitely more comfortable in the right handed box, his natural side. Linear to downward bat path, left handed he sets up with a very wide base, hits off of front foot with little to no drive from lower half. More a rock to his front foot with a flat slap at the ball. Right Handed he looks to drive the ball far more often, incorporating his lower half with a leg kick trigger and deeper load. Still under development, newer to switch hitting, showed strong bat to ball skills in 2019 despite being nearly three years younger than the average age of his competition.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lacks ability to drive the ball with authority to either side, at present lacks even gap power. Setup and operation are not designed to turn in pitches. There's some optimism around his ability to make changes to his setup and find more power as he develops. Difficult to project based on previous observation and present strength and approach.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Double plus speed and explosive burst allow Jimenez to cover a tremendous amount of ground in centerfield. This alone should project him there long term. Still underdeveloped instinctually in the outfield. Will make poor reads off the bat, and cover it up with elite closing speed. At just 20 years old Jimenez has time to gain experience from reps and focus on reading the ball off the bat with greater accuracy and confidence. Could develop into a plus fielder in time.</t>
+  </si>
+  <si>
+    <t>Strong outfield arm that plays in center as well as corner. Made consistent accurate throws with zip in game to intended targets. Quick release and good mechanics on throws. Adds overall defensive profile further.</t>
+  </si>
+  <si>
+    <r>
+      <t>Double plus runner consistently clocked sub-4.1 from right hand side and 4 and below from the left. One of the fastest, if not the fastest player in the organization.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Talented young prospect with good physical projection remaining, a high level of baseline athleticism and twitch. Elite speed out of the box and in center. Approach is predicated around speed, his loudest tool. Strong bat to ball skills, but lacks premium contact and batted ball profile. There's hope within the organization that he can unlock gap power, particularly from the right handed side of the plate. Projection player offensively and defensively, despite a more polished defensive profile. Exciting talent but a wide range of probable outcomes.</t>
+  </si>
+  <si>
+    <t>Blaze Jordan</t>
+  </si>
+  <si>
+    <t>Very young for draft class, as he reclassified to 2020 from 2021. Frame is nearly filled out, with a body that is physically mature. Maintaining his body is something to watch for, as his body is not primed to age well. Has lost weight and is making a solid effort at maintaining his body.</t>
+  </si>
+  <si>
+    <r>
+      <t>Wide stance with a subtle leg kick that he uses as his trigger. Hands start low, has insane bat speed and makes very loud contact. Drives his hips very well. Has previously struggled against older competition on the summer circuit, which does bring about questions regarding the hit tool. Some believe he could make enough contact to be average, but likely to be below-to-fringe average hitter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Easily Jordan's best tool and is his likely carrying tool. Has good natural loft to his swing and generates power very well. Drives the ball with authority to all fields of the park. Projected to be a plus power tool throughout the minors, due to bat speed, raw strength, and natural loft. Could develop into a barrel machine in the best case scenario.</t>
+  </si>
+  <si>
+    <r>
+      <t>Due to his big body, his days at third base are likely numbered. His speed hurts his range and he will likely find himself being a first baseman at the big league level. Hands are a bit noisy and the footwork isn't the prettiest. Due to weight loss, his mobility has improved, but isn't likely to stave off a move across the diamond.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Arm strength is present, but will not be enough to stay at third base. Fringe-average to average tool.</t>
+  </si>
+  <si>
+    <r>
+      <t>At 6'2", 220 pounds, he does not move particularly well. Not the greatest baserunner. Below-average at best.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>The questions about the hit tool will persist. His power will be his dominant trait moving through Boston's system, and a move to first baseman is nearly certain despite his efforts to improve his body. If he can hit against older competition when minor league ball resumes, could be an average tool. High risk player.</t>
+    </r>
+  </si>
+  <si>
+    <t>Connor Wong</t>
+  </si>
+  <si>
+    <t>2017 Draft round 3</t>
+  </si>
+  <si>
+    <t>Small for a catcher at 6'1" and just shy of 180 pounds. Skinny, athletic frame, but not much projection remaining to his body. Plays second and third base as well. Smaller frame allows for some more fluid movement.</t>
+  </si>
+  <si>
+    <r>
+      <t>Moderately wide stance at the plate, leg kick is his trigger. Hands moved to a higher starting point after trade from Dodgers, where his hands started low during his load. Swing is long and his approach is aggressive, which hampers the hit tool. Genuine concern for swings and misses, will need to refine his approach.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dodgers worked with Wong to give his swing more loft and to lift the ball more into the air. Swing is loose. He has shown solid raw power to all fields, but in game power will likely not be more than average due to contact concerns. Further adjustments will be needed if he wants to tap more into his power.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Versatility is key for Wong. Primarily a catcher, he has played at second and third base in the past. Moves well for a catcher behind the plate. Receiving and framing skills are fringe-average, but have improved and could become average. Smooth hands in the field too, but likely will be placed behind the plate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Average arm strength behind the plate. Works well for second base, too. Has worked on throwing as he has progressed, but likely won't reach a higher grade than what it is.</t>
+  </si>
+  <si>
+    <r>
+      <t>Has shown off speed in the past, particularly in college at Houston, where he stole 26 bases in his final season on campus. Moves well, but will become an average asset as he gets older. Not likely to be a menace on the basepaths.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wong's versatility will make him a future utility piece for the Red Sox. Hit tool will carry the most questions as he progresses. Will be interesting to see how far improvements behind the plate with receiving, framing, and throwing progress as well.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeisson Rosario</t>
+  </si>
+  <si>
+    <t>Average frame with a lean upper body and long legs. High waist, noticeably thick butt, muscular thighs. Room to add weight up top. Natural athlete who makes things look easy.</t>
+  </si>
+  <si>
+    <r>
+      <t>Moderately crouched stance with wide base. Hands are high with bat bobbing up and down on shoulder. Torso starts slightly coiled. No stride, slight shift back before resetting front foot for launch position. Few moving parts before swing; simple and still. Very patient, confident feel of zone, makes pitcher come to him. Swing plane feels level. Can lift balls down, but more prone to LD and grounders. Will try and bunt for a hit.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not a powerful swing. Looking to make solid contact rather than hit homers. Lack of loft makes for more gap power than HR power. Has the legs to stretch extra bases. Enough raw to move up a half grade if the swing is optimized for loft.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tracks ball off the bat comfortably. Moves easily and takes good routes. Makes it look easy. Above average range. Solid glove, makes good plays but doesn't come up with the great ones. Has that feel of a good, reliable defender. Good instincts.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Good actions and feel for positioning. Gets himself in position to throw. Ball stays on a line. Passable in right.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aggressive on basepaths, tries to take the extra base if there's a chance -- can stretch a single into 2. Glides on the bases and in the outfield. Clocked a 4.13 H-1. Weapon on the basepaths.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prototypical CF prospect. Plus defender with speed and a good arm and the contact and plate skills to lead off. Not much power to speak of due to approach and swing plane, perhaps an adjustment could add a handful of homers. High probability MLB guy with defensive replacement/pinch runner floor. Feels like Victor Robles Lite.</t>
+    </r>
+  </si>
+  <si>
+    <t>Connor Seabold</t>
+  </si>
+  <si>
+    <t>2020 PHI</t>
+  </si>
+  <si>
+    <t>Average build, unassuming. Wide shoulders, but not built. Not muscle bound but not quite soft. No real distinguishing features outside of slightly long legs. Decent athleticism. Body is mature. What you see is what you get.</t>
+  </si>
+  <si>
+    <t>Throw from three quarters to low three quarters arm slot with relatively low effort. Windup features leg kick to the letters; Simple and easy to repeat, hides the ball decently. Works quickly. Mechanics quicker from stretch with slightly abbreviated leg kick. Not quite the same repeatability.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sits 91-92, T93, with good armside run. More run than rise but can still get a whiff at the top of the zone. Will flatten out occasionally. Hitters struggle to square it up and he can put it by them when he's on.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sits 82-84 and has average bite. Able to throw it for strikes and off the plate for whiffs. Can backdoor lefties with it. Tunnels nicely with FB. Confidence to throw it behind in the count and full count. Even 3-0.</t>
+  </si>
+  <si>
+    <r>
+      <t>79-81 Good depth with armside fade, 10-4. Will throw it to both lefties and righties. Tough on hitters when it's down, feels like it could be his out pitch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Can hit the zone with entire arsenal. Lives on the edges of the zone, rarely leaving anything over the heart. Works both sides of the plate, knack for putting the ball where the hitter can't square it up.</t>
+  </si>
+  <si>
+    <t>Finesse over power guy whose average stuff plays up due to command and sequencing. Induces more weak contact than whiffs, but is able to miss bats. Soon as hitters start sitting on the secondaries, he'll blow the fastball by them -- keeps hitters on their toes. More confidence in change could lead to more Ks. Not much upside here, needs the command to be effective -- not enough stuff to get away with mistakes. Stoic on the mound through ups and downs. Good shot as a back end rotation guy between the command, secondaries, composure and pitchability; long relief floor.</t>
+  </si>
+  <si>
+    <t>Matthew Lugo</t>
+  </si>
+  <si>
+    <t>2019 Draft round 2</t>
+  </si>
+  <si>
+    <t>Thin but projectable frame, could see him adding anywhere from 20 to 25 over the coming years without his athleticism taking a hit. Wiry strength at this point that should mature in time. Good build, projection, and a frame that shouldn't age poorly.</t>
+  </si>
+  <si>
+    <t>Pitch recognition and tracking skills still developing. Has the bat speed to catch up to velocity and flashes above average raw power in batting practice. Right handed swing sets up open, with a front toe tap trigger begins his load with a rock, gets deep into back hip. Stays balanced with a longer bat path with slight angle and an abrupt uppercut finish. At this point Lugo struggles to recognize spin and catch-up to elevated fastballs. This may come in due time, as mechanics are good and he has shown some feel to hit versus age appropriate competition.</t>
+  </si>
+  <si>
+    <r>
+      <t>it's all projection here, but the combination of plus bat speed, with added strengths gains, and good swing mechanics that engage his lower half I'm willing to gamble on Lugo developing at least fringe average game power.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Projectable defensive profile, quick first step, rangy, quick twitch actions, shows the ability to make athletic plays in the field. However, Lugo is still very underdeveloped fundamentally and will make mistakes that should be cured with experience. Has the hands and actions to stick in the dirt sliding to either third base or second base long term. Tools and speed to transition to the outfield. Projects as an average defender due to tools and athleticism.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Strong throwing arm with zip and improving accuracy. Was up to 90+ mph from the infield as a high school senior. Strong enough arm to guy anywhere in the infield or outfield should it come to that.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Plus runner, ran a 6.46 60 yard dash pre-draft, has the ability to steal bases, and put pressure on defenders.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Tooled up player with projectable power and defensive value. Improvements in pitch recognition and approach could see raw power translate to game power. Right now a projectable teenager with loud tools and not much polish. If he maintains athleticism and makes moderate offensive gains in the coming years should reach a utility level floor.</t>
+  </si>
+  <si>
+    <t>Chih-Jung Liu</t>
+  </si>
+  <si>
+    <t>Average height but physically strong. Only slight projection remains in the body. Could add strength in his lower half in the coming years to help him maintain his best velocity deep into games.</t>
+  </si>
+  <si>
+    <t>Deceptive delivery, from full windup Liu deploys an exaggerated leg kick with almost a slight hitch before extension (Tanaka-esque). Step and throw mechanics, clean arm action, from a three quarter slot. Low release due to height and drive. Shortens up operation from the stretch, shortens the height and extension of leg kick, will rush through his motion at times from the stretch and lose his feel for his fastball+slider combination. Good mechanics and plus velocity already are a good combination.</t>
+  </si>
+  <si>
+    <r>
+      <t>Up to 98 mph in game as of last fall, sitting low to mid 90s at the moment. Fastball has good life and he can rise it and run it. Late life, will lose release at times and miss gloveside. Still improving feel but it's his best pitch. His best fastballs are elevated with flat approach angles and efficient backspin.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slurvy breaking ball with gyro spin, his best sliders have little movement and little late vertical drop. Shows the ability to bury it when needed. Will lose release from stretch and command will waiver. Solid projectable second offering.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Similar velocity band to his slider 80-83 mph, gets late fade, used less than splitter in game, only limited looks.</t>
+  </si>
+  <si>
+    <t>Reported velocity in the high-80s runs with drop to his armside. Others will run too much and are easy takes for hitters. Limited feel at this point.</t>
+  </si>
+  <si>
+    <r>
+      <t>Liu's ability to command his arsenal from the stretch really knocks his overall command grades at the moment. At just 21 and a full year since the most recent game video, it's hard to know if Liu has improved in this area. He's at least an average strike thrower and when he repeats his motion he lives around the upper quadrants. Prone to leave his fastball over the plate and hang his slider when he loses his timing, as his arm drags.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Has the velocity and movement on his fastball, a secondary that's at least average and two pitches he can develop into a true third offering. Still waiting to make his debut in affiliated ball. Stuff to dream on and his lack of height is becoming less of a detriment and more of an asset. Very limited public profile.</t>
+  </si>
+  <si>
+    <t>Hudson Potts</t>
+  </si>
+  <si>
+    <t>Big, strong frame that still has a little room for weight. Wide shoulders and long limbs. Legs muscular but not big. Athletic build and moves fine, but definitely a corner profile.</t>
+  </si>
+  <si>
+    <r>
+      <t>Upright stance, sits into the knees a bit, hands shoulder level and tight, bat straight up. Legs a little wider than shoulder-width. Very quiet. Loads with minor leg kick to mid-thigh, up and down in the same spot, very little coil. Hands travel up and back. Swing is easy but chops down. Something unnatural about his sequencing, might be pushing, looks like a hitch mid-swing. Swing feels awkward despite the low effort, looks uncomfortable at launch position, back shoulder dips - maybe hands are just late. Average bat speed, looks like room for more if mechanics are optimized. Fringy swing and miss, not awful but more than you'd like; will chase a good breaker. Moderate patience.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Easy pop. Ball jumps off the bat and carries with back spin. Really drives the ball despite average bat speed. Chance for big power here with improvement to the hit tool. Easy plus raw.</t>
+  </si>
+  <si>
+    <t>Former MI, solid actions and decent hands. Gets himself in position to succeed. Lack of quickness limits range, but he can hold his own. Good instincts and feel.</t>
+  </si>
+  <si>
+    <t>Average carry; hits the target off-balance and on the move. Doesn't need to set his feet to be effective. Whips from almost a sidearm slot.</t>
+  </si>
+  <si>
+    <t>Lumbers a bit. Solid actions, but lacks quickness. Almost like he's moving in slow motion - like his body just doesn't move like it used to.</t>
+  </si>
+  <si>
+    <t>Power corner profile with swing and miss issues. Outgrowing his athleticism, but still a chance to stick on the infield with average glove and AA arm because of his feel. There's big time power in the bat, but hit tool issues will limit what he gets to in games. Padres experimented with him at 2B where he could offer a big bat a la Moustakas, but more Ks. Glove, instincts and shifting might make him passable there. More likely a platoon corner bat.</t>
+  </si>
+  <si>
+    <t>Brainer Bonaci</t>
+  </si>
+  <si>
+    <t>Lean but muscular frame with long limbs. Looks heavier than 140 already. Powerful for "small" stature at 5'10". Plenty of room for weight, shoulders broad enough to carry more muscle. Live body that's well proportioned. Gets the most from his frame.</t>
+  </si>
+  <si>
+    <t>Switch hitter. High hands with a little wiggle, mostly upright with slight knee bend on both sides of the plate. Moderate leg kick both ways. Has slight loft in the swing plane despite the high hands, seems to generate easy bat speed. Low effort swing but the ball pops pretty well. Smooth from both sides, almost a mirror image.</t>
+  </si>
+  <si>
+    <t>Gets easy bat speed despite smaller stature. Should add strength. Power looks like it will play up more than you would expect due to athleticism.</t>
+  </si>
+  <si>
+    <t>Tough to gauge in limited action, but he has fluid movements and good athleticism. Subject to change with more in-game action stateside.</t>
+  </si>
+  <si>
+    <t>Rumored to be a double-plus cannon, but could change as we get more looks when he comes stateside.</t>
+  </si>
+  <si>
+    <t>Limited looks, but he moves well and is explosive. Likely to change as body matures.</t>
+  </si>
+  <si>
+    <t>A 2018 J2 signing with very little professional experience who has yet to play stateside due to the pandemic. An athletic switch hitter with surprising pop for his small frame. Strong arm will give him a chance to play on the left side of the infield. Tremendous upside and unknown in the current profile, could move up or down this list in 2021.</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>An athletic, lean RHP. He looks shorter than his listed height, probably 6' 170 lbs. Wiry strong all over but particularly in the lower half. Some projection left. Could add an additional 10 lbs of muscle to the frame but looks destined to remain thin.</t>
+  </si>
+  <si>
+    <t>1B, 3/4, athletic, loose, quick arm. Repeats pretty well. He gets solid extension and the effort level is medium. Lots of inconsistencies with release point.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>93-95 (96), flashed some decent life up in the zone. Could potentialy reach for 98+ in one inning work.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mid to upper 80's, flashes quality depth and bite. Shows put away tendencies but is inconsistent. </t>
+  </si>
+  <si>
+    <t>Upper 80's, will flash some solid fade and sink but infrequently. Some noticable slowing of the arm.</t>
+  </si>
+  <si>
+    <t>Fringe control and below average command currently. Both could take a minor step forward due to his athleticism and his ability to repeat his mechanics.</t>
+  </si>
+  <si>
+    <t>May have enough for a #4 or #5 SP eventually, more likely a pen arm and potentially a pretty good one.</t>
+  </si>
+  <si>
+    <t>Ryan Zeferjahn</t>
+  </si>
+  <si>
+    <t>2019 Draft round 3</t>
+  </si>
+  <si>
+    <t>Tall righty with long limbs and broad shoulders. Thick thighs, average butt; upper half has room for some good weight, but doesn't look underdeveloped. Live arm.</t>
+  </si>
+  <si>
+    <t>Three quarters arm slot, mostly, will lean a little and move to a high three quarter at times - perhaps when he's working glove side. Moderate effort in delivery, a tick more from the stretch. Windup is casual with an easy leg kick to the navel before ripping his arm to the plate. Heavy followthrough as his leg swings around, pulls him 1st base side occasionally. Could see the lurch to the plate causing command issues.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>92-95 with visible tail; has touched 98. Gets whiffs and pop-ups up in the zone, so it has some ride despite the lower arm slot. Uses early and often, out pitch for Ks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>84-87, has decent movement but lacks any real bite. Slurvy, in between shape. Seems to lack feel and doesn't get a ton of whiffs or chase. Will try and steal strikes with it early.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>83-86 with good depth. Sells with armspeed and gets swing and miss when it looks like a strike. Struggles to control it.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Below average. Misses in bunches and then has to come into the heart of the plate. This is a significant issue for him and will likely limit him to the pen unless the team can help him make an adjustment.</t>
+  </si>
+  <si>
+    <t>Starter's frame and arsenal with a reliever's control and command. The fastball is plus but the secondaries are fringy. Even if they improve, the command is still a limiting factor. High upside, high floor type pitcher who has a shot at being a backend starter and is almost a lock to be a big league bullpen arm.</t>
+  </si>
+  <si>
+    <t>Jacob Wallace</t>
+  </si>
+  <si>
+    <t>Average build, listed at 6'1" and 190lbs. Lean and muscular with good size for the frame, but nothing that stands out. Big thighs and a bubble butt with decently broad shoulders. Average athleticism.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aggressive, moderately high effort delivery that works exclusively from the stretch. Sets straight up with slight bend in the rear knee and hands resting at the navel. Sharp leg kick to the letters starts the motion; appears to lean toward 1st and step open when moving to the plate -- really feels like he flies open. Drops and drives a tad, gets into his legs well for power. Long arm path that travels behind his body and comes through at a 3/4 to low 3/4 slot depending on body tilt. Finishes hard and low, nearly 180 degrees from set position. Motion quickens when runners on, leg kick abbreviated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sits 94-95, T97. Has some ride and tail. Attacks with it and can blow it by hitters as an out pitch, especially when elevating. Consistently gets whiffs, seems to explode on hitters. Doesn't always know where it's going.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sits around 84. Hard slider with average bite, depth. Pretty consistent pitch. Buries it gloveside for whiffs, but not afraid to drop it in for a strike either. Can backdoor it to catch hitters off guard. Not sure any hitter made contact with one that I saw. Plays well off fastball, hitters often out in front.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rears back and lets it fly. Throws more uncompetitive pitches than you'd like. Gives the vibe that he's just trying to hit the zone and not necessarily a spot, but can spot both the fastball and slider on the corners from time to time. Seems he's either on or he's off. Here to beat hitters with stuff, not finesse or location.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aggressive reliever who goes right after hitters. Misses bats with both the fastball and slider, but control is suspect. Wild enough to keep hitters honest. Closed in college, closing in the minors, seems to have the mentality to handle high-leverage situations and shut the door. Upside for AA high leverage if the command improves, but stuff gives him low-leverage relief floor, at least.</t>
+  </si>
+  <si>
+    <t>Chris Murphy</t>
+  </si>
+  <si>
+    <t>Average height, lean build, with long levers and room for good physical projection. Low maintenance body type, high waisted and athletic. Shows strong pliability and fluidity in movements.</t>
+  </si>
+  <si>
+    <t>Clean and fluid mechanics but still mastering consistency and repeating motion. Starts on the left hand side of the rubber, begins operation with two quick stutter-steps before triggering his delivery with a moderate leg lift, slight glove raise, and delivers from a lower three quarters slot. Gets good drive from his back leg, dropping heavily over his leg block, with his momentum often swinging his back leg around during finish, falling off to the third base side at times. From the stretch he tones down his operation and simply stretches and fires. Has a tendency to struggle mimicking his release point from the stretch, often sailing his fastball glove side versus right handed hitters. Has continued to improve mechanics since entering the professional ranks.</t>
+  </si>
+  <si>
+    <r>
+      <t>Good movement and average to above-average velocity from the left hand side, will sit 90-93 mph, touching 94-95 mph at his peak. Shows good movement characteristics, showing the ability to create riding life on the fastball when elevated. Made an approach change upon entering pro-ball as the organization asked him to work in the upper quadrants. Control/command woes that detracted from Murphy's profile seemed to fade as he controlled the top of the zone with better results. Struggles to locate gloveside on the inner-half to right handed hitters. Will lose feel for gloveside command from the stretch. Projection to add more velocity in the coming years as he adds good weight. A bump up to 92-94 mph could push this grade a half a measure.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Slow bender in the mid-70s, sitting 73-76 mph in early 2019 looks, it shows 1-7 break with some late tail. Doesn't always snap it off with consistency and it will lose shape. His best breakers have deep break and steep vertical dump. Command and control development could push this pitch into average territory in the future.</t>
+  </si>
+  <si>
+    <t>A work in progress and point of emphasis for Murphy heading into 2020. How much it has developed over the past 12 months is a bit of a misnomer. In last look it was a slurvy offering in the 81-83 mph range. More horizontal spin axis than his curveball with a closer to 3-9 break, causing it to sweep. Still developing shape and ability to mimic release. The current version of Murphy's slider is a harder, less spin efficient version in the 83-86 mph range. How this pitch plays in game could be a large development heading into 2021. For now it's wait and see.</t>
+  </si>
+  <si>
+    <r>
+      <t>Murphy's strongest pitch. Shows the ability to pronate consistently landing it for swinging strikes versus righthanders as it runs and tumbles to his armside. Thrown with conviction and sold with arm speed, batters have considerable trouble squaring it up and those that do tend to beat the pitch into the ground. Average velocity band of 79-83 mph, showing good separation from the fastball. Not always consistent with release, will lose command of the pitch at times.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A drastic improvement in walk rate was a direct result of change in fastball approach between his collegiate career and early professional days. Due to the movement on his fastball he has a much better ability to land it in the upper quadrants for strikes. This played up the effectiveness of his changeup, a pitch that never showed nearly as well during his time at San Diego. The command and feel for his pair of breaking balls is still coming along. The desire to improve shape and approach tells me the last iteration may not be the current version of Murphy. Showed at least average strike throwing ability out of the draft, but command is still a point of emphasis, particularly from the stretch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>A four-pitch mix and repeatable mechanics with good velocity separation throughout his arsenal. Murphy's ability to tighten his mechanics will lend itself to increased strike throwing. For now he's stuck in a tweener profile without true feel or identity of a third pitch. Left Handed fastball+changeup profile needs to be complemented by the ability to work in and around the zone. Murphy has only shown the ability to do so during a short sample professionally. His track record as an amateur tells a different tale. Assuming his change in fastball approach has led to greater command of his entire arsenal, it's reasonable to see Murphy as a lower leverage multi-inning relief type. The best possible outcome is a backend starter profile. This idea leans heavily on the development of his new slider - a pitch he's yet to throw in an affiliated game - as a viable third option.</t>
+  </si>
+  <si>
+    <t>Aldo Ramirez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22442,6 +25548,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -22463,7 +25582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -22471,6 +25590,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22785,16 +25906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD3C71-9FAF-414F-84F9-AC57BAD01274}">
-  <dimension ref="A1:Z180"/>
+  <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -35518,6 +38639,9 @@
       </c>
     </row>
     <row r="160" spans="1:26">
+      <c r="A160">
+        <v>2021</v>
+      </c>
       <c r="B160" t="s">
         <v>2704</v>
       </c>
@@ -35594,7 +38718,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="2:26">
+    <row r="161" spans="1:26">
+      <c r="A161">
+        <v>2021</v>
+      </c>
       <c r="B161" t="s">
         <v>2739</v>
       </c>
@@ -35671,7 +38798,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="2:26">
+    <row r="162" spans="1:26">
+      <c r="A162">
+        <v>2021</v>
+      </c>
       <c r="B162" t="s">
         <v>2747</v>
       </c>
@@ -35748,7 +38878,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="2:26">
+    <row r="163" spans="1:26">
+      <c r="A163">
+        <v>2021</v>
+      </c>
       <c r="B163" t="s">
         <v>2792</v>
       </c>
@@ -35825,7 +38958,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="2:26">
+    <row r="164" spans="1:26">
+      <c r="A164">
+        <v>2021</v>
+      </c>
       <c r="B164" t="s">
         <v>2800</v>
       </c>
@@ -35902,7 +39038,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="2:26">
+    <row r="165" spans="1:26">
+      <c r="A165">
+        <v>2021</v>
+      </c>
       <c r="B165" t="s">
         <v>2808</v>
       </c>
@@ -35979,7 +39118,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="2:26">
+    <row r="166" spans="1:26">
+      <c r="A166">
+        <v>2021</v>
+      </c>
       <c r="B166" t="s">
         <v>2831</v>
       </c>
@@ -36056,7 +39198,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="2:26">
+    <row r="167" spans="1:26">
+      <c r="A167">
+        <v>2021</v>
+      </c>
       <c r="B167" t="s">
         <v>2848</v>
       </c>
@@ -36133,7 +39278,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="2:26">
+    <row r="168" spans="1:26">
+      <c r="A168">
+        <v>2021</v>
+      </c>
       <c r="B168" t="s">
         <v>2865</v>
       </c>
@@ -36210,7 +39358,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="2:26">
+    <row r="169" spans="1:26">
+      <c r="A169">
+        <v>2021</v>
+      </c>
       <c r="B169" t="s">
         <v>2873</v>
       </c>
@@ -36287,7 +39438,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="170" spans="2:26">
+    <row r="170" spans="1:26">
+      <c r="A170">
+        <v>2021</v>
+      </c>
       <c r="B170" t="s">
         <v>2882</v>
       </c>
@@ -36364,7 +39518,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="2:26">
+    <row r="171" spans="1:26">
+      <c r="A171">
+        <v>2021</v>
+      </c>
       <c r="B171" t="s">
         <v>2911</v>
       </c>
@@ -36441,7 +39598,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="2:26">
+    <row r="172" spans="1:26">
+      <c r="A172">
+        <v>2021</v>
+      </c>
       <c r="B172" t="s">
         <v>2921</v>
       </c>
@@ -36518,7 +39678,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="2:26">
+    <row r="173" spans="1:26">
+      <c r="A173">
+        <v>2021</v>
+      </c>
       <c r="B173" t="s">
         <v>2929</v>
       </c>
@@ -36595,7 +39758,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="2:26">
+    <row r="174" spans="1:26">
+      <c r="A174">
+        <v>2021</v>
+      </c>
       <c r="B174" t="s">
         <v>2946</v>
       </c>
@@ -36672,7 +39838,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="2:26">
+    <row r="175" spans="1:26">
+      <c r="A175">
+        <v>2021</v>
+      </c>
       <c r="B175" t="s">
         <v>2965</v>
       </c>
@@ -36749,7 +39918,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="176" spans="2:26">
+    <row r="176" spans="1:26">
+      <c r="A176">
+        <v>2021</v>
+      </c>
       <c r="B176" t="s">
         <v>2991</v>
       </c>
@@ -36826,7 +39998,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="2:26">
+    <row r="177" spans="1:26">
+      <c r="A177">
+        <v>2021</v>
+      </c>
       <c r="B177" t="s">
         <v>2999</v>
       </c>
@@ -36903,7 +40078,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="2:26">
+    <row r="178" spans="1:26">
+      <c r="A178">
+        <v>2021</v>
+      </c>
       <c r="B178" t="s">
         <v>3007</v>
       </c>
@@ -36980,7 +40158,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="179" spans="2:26">
+    <row r="179" spans="1:26">
+      <c r="A179">
+        <v>2021</v>
+      </c>
       <c r="B179" t="s">
         <v>3015</v>
       </c>
@@ -37057,7 +40238,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="2:26">
+    <row r="180" spans="1:26">
+      <c r="A180">
+        <v>2021</v>
+      </c>
       <c r="B180" t="s">
         <v>3023</v>
       </c>
@@ -37132,6 +40316,1991 @@
       </c>
       <c r="Z180" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" ht="16">
+      <c r="A181">
+        <v>2021</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E181" t="s">
+        <v>572</v>
+      </c>
+      <c r="F181">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>76</v>
+      </c>
+      <c r="H181">
+        <v>225</v>
+      </c>
+      <c r="I181" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" t="s">
+        <v>27</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L181" t="s">
+        <v>58</v>
+      </c>
+      <c r="M181" s="5" t="s">
+        <v>3059</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>3060</v>
+      </c>
+      <c r="O181">
+        <v>55</v>
+      </c>
+      <c r="P181" s="5" t="s">
+        <v>3061</v>
+      </c>
+      <c r="Q181">
+        <v>45</v>
+      </c>
+      <c r="R181" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="S181">
+        <v>50</v>
+      </c>
+      <c r="T181" s="5" t="s">
+        <v>3063</v>
+      </c>
+      <c r="U181">
+        <v>50</v>
+      </c>
+      <c r="V181" s="5" t="s">
+        <v>3064</v>
+      </c>
+      <c r="W181">
+        <v>40</v>
+      </c>
+      <c r="X181" s="5" t="s">
+        <v>3065</v>
+      </c>
+      <c r="Y181">
+        <v>40</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" ht="16">
+      <c r="A182">
+        <v>2021</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C182" t="s">
+        <v>173</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E182" t="s">
+        <v>417</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182">
+        <v>75</v>
+      </c>
+      <c r="H182">
+        <v>200</v>
+      </c>
+      <c r="I182" t="s">
+        <v>163</v>
+      </c>
+      <c r="J182" t="s">
+        <v>163</v>
+      </c>
+      <c r="K182" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L182">
+        <v>2022</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>3068</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>3069</v>
+      </c>
+      <c r="O182">
+        <v>40</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="Q182">
+        <v>55</v>
+      </c>
+      <c r="R182" s="5" t="s">
+        <v>3071</v>
+      </c>
+      <c r="S182">
+        <v>50</v>
+      </c>
+      <c r="T182" s="5" t="s">
+        <v>3072</v>
+      </c>
+      <c r="U182">
+        <v>60</v>
+      </c>
+      <c r="V182" s="5" t="s">
+        <v>3073</v>
+      </c>
+      <c r="W182">
+        <v>50</v>
+      </c>
+      <c r="X182" s="5" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Y182">
+        <v>40</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" ht="16">
+      <c r="A183">
+        <v>2021</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E183" t="s">
+        <v>417</v>
+      </c>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183">
+        <v>70</v>
+      </c>
+      <c r="H183">
+        <v>175</v>
+      </c>
+      <c r="I183" t="s">
+        <v>163</v>
+      </c>
+      <c r="J183" t="s">
+        <v>27</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L183">
+        <v>2023</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>3109</v>
+      </c>
+      <c r="N183" s="5" t="s">
+        <v>3110</v>
+      </c>
+      <c r="O183">
+        <v>45</v>
+      </c>
+      <c r="P183" s="5" t="s">
+        <v>3111</v>
+      </c>
+      <c r="Q183">
+        <v>40</v>
+      </c>
+      <c r="R183" s="5" t="s">
+        <v>3112</v>
+      </c>
+      <c r="S183">
+        <v>55</v>
+      </c>
+      <c r="T183" s="5" t="s">
+        <v>3113</v>
+      </c>
+      <c r="U183">
+        <v>55</v>
+      </c>
+      <c r="V183" s="5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="W183">
+        <v>55</v>
+      </c>
+      <c r="X183" s="5" t="s">
+        <v>3115</v>
+      </c>
+      <c r="Y183">
+        <v>40</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" ht="16">
+      <c r="A184">
+        <v>2021</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C184" t="s">
+        <v>173</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E184" t="s">
+        <v>572</v>
+      </c>
+      <c r="F184">
+        <v>24</v>
+      </c>
+      <c r="G184">
+        <v>71</v>
+      </c>
+      <c r="H184">
+        <v>185</v>
+      </c>
+      <c r="I184" t="s">
+        <v>27</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" t="s">
+        <v>3117</v>
+      </c>
+      <c r="L184" t="s">
+        <v>58</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>3118</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>3119</v>
+      </c>
+      <c r="O184">
+        <v>40</v>
+      </c>
+      <c r="P184" s="6" t="s">
+        <v>3120</v>
+      </c>
+      <c r="Q184">
+        <v>30</v>
+      </c>
+      <c r="R184" s="5" t="s">
+        <v>3121</v>
+      </c>
+      <c r="S184">
+        <v>55</v>
+      </c>
+      <c r="T184" s="5" t="s">
+        <v>3122</v>
+      </c>
+      <c r="U184">
+        <v>50</v>
+      </c>
+      <c r="V184" s="5" t="s">
+        <v>3123</v>
+      </c>
+      <c r="W184">
+        <v>70</v>
+      </c>
+      <c r="X184" s="5" t="s">
+        <v>3124</v>
+      </c>
+      <c r="Y184">
+        <v>40</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" ht="16">
+      <c r="A185">
+        <v>2021</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F185">
+        <v>25</v>
+      </c>
+      <c r="G185">
+        <v>68</v>
+      </c>
+      <c r="H185">
+        <v>180</v>
+      </c>
+      <c r="I185" t="s">
+        <v>27</v>
+      </c>
+      <c r="J185" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L185" t="s">
+        <v>58</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>3127</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>3128</v>
+      </c>
+      <c r="O185">
+        <v>50</v>
+      </c>
+      <c r="P185" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="Q185">
+        <v>45</v>
+      </c>
+      <c r="R185" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="S185">
+        <v>45</v>
+      </c>
+      <c r="T185" s="5" t="s">
+        <v>3131</v>
+      </c>
+      <c r="U185">
+        <v>45</v>
+      </c>
+      <c r="V185" s="5" t="s">
+        <v>3132</v>
+      </c>
+      <c r="W185">
+        <v>55</v>
+      </c>
+      <c r="X185" s="5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="Y185">
+        <v>40</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" ht="16">
+      <c r="A186">
+        <v>2021</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C186" t="s">
+        <v>79</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186">
+        <v>74</v>
+      </c>
+      <c r="H186">
+        <v>170</v>
+      </c>
+      <c r="I186" t="s">
+        <v>163</v>
+      </c>
+      <c r="J186" t="s">
+        <v>27</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2756</v>
+      </c>
+      <c r="L186">
+        <v>2021</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>3135</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="O186">
+        <v>45</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>3137</v>
+      </c>
+      <c r="Q186">
+        <v>40</v>
+      </c>
+      <c r="R186" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="S186">
+        <v>60</v>
+      </c>
+      <c r="T186" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="U186">
+        <v>55</v>
+      </c>
+      <c r="V186" s="5" t="s">
+        <v>3140</v>
+      </c>
+      <c r="W186">
+        <v>50</v>
+      </c>
+      <c r="X186" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="Y186">
+        <v>40</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" ht="16">
+      <c r="A187">
+        <v>2021</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C187" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187">
+        <v>72</v>
+      </c>
+      <c r="H187">
+        <v>220</v>
+      </c>
+      <c r="I187" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" t="s">
+        <v>27</v>
+      </c>
+      <c r="K187" t="s">
+        <v>3161</v>
+      </c>
+      <c r="L187">
+        <v>2023</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="N187" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="O187">
+        <v>45</v>
+      </c>
+      <c r="P187" s="6" t="s">
+        <v>3164</v>
+      </c>
+      <c r="Q187">
+        <v>40</v>
+      </c>
+      <c r="R187" s="5" t="s">
+        <v>3165</v>
+      </c>
+      <c r="S187">
+        <v>55</v>
+      </c>
+      <c r="T187" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="U187">
+        <v>55</v>
+      </c>
+      <c r="V187" s="5" t="s">
+        <v>3167</v>
+      </c>
+      <c r="W187">
+        <v>40</v>
+      </c>
+      <c r="X187" s="5" t="s">
+        <v>3168</v>
+      </c>
+      <c r="Y187">
+        <v>40</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" ht="16">
+      <c r="A188">
+        <v>2021</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C188" t="s">
+        <v>173</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E188" t="s">
+        <v>572</v>
+      </c>
+      <c r="F188">
+        <v>22</v>
+      </c>
+      <c r="G188">
+        <v>74</v>
+      </c>
+      <c r="H188">
+        <v>170</v>
+      </c>
+      <c r="I188" t="s">
+        <v>27</v>
+      </c>
+      <c r="J188" t="s">
+        <v>27</v>
+      </c>
+      <c r="K188" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L188">
+        <v>2021</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>3186</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>3187</v>
+      </c>
+      <c r="O188">
+        <v>45</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="Q188">
+        <v>30</v>
+      </c>
+      <c r="R188" s="5" t="s">
+        <v>3189</v>
+      </c>
+      <c r="S188">
+        <v>55</v>
+      </c>
+      <c r="T188" s="5" t="s">
+        <v>3190</v>
+      </c>
+      <c r="U188">
+        <v>50</v>
+      </c>
+      <c r="V188" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="W188">
+        <v>60</v>
+      </c>
+      <c r="X188" s="5" t="s">
+        <v>3192</v>
+      </c>
+      <c r="Y188">
+        <v>35</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" ht="16">
+      <c r="A189">
+        <v>2021</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C189" t="s">
+        <v>173</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189">
+        <v>72</v>
+      </c>
+      <c r="H189">
+        <v>160</v>
+      </c>
+      <c r="I189" t="s">
+        <v>27</v>
+      </c>
+      <c r="J189" t="s">
+        <v>27</v>
+      </c>
+      <c r="K189" t="s">
+        <v>999</v>
+      </c>
+      <c r="L189">
+        <v>2022</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>3212</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>3213</v>
+      </c>
+      <c r="O189">
+        <v>50</v>
+      </c>
+      <c r="P189" s="5" t="s">
+        <v>3214</v>
+      </c>
+      <c r="Q189">
+        <v>40</v>
+      </c>
+      <c r="R189" s="5" t="s">
+        <v>3215</v>
+      </c>
+      <c r="S189">
+        <v>50</v>
+      </c>
+      <c r="T189" s="5" t="s">
+        <v>3216</v>
+      </c>
+      <c r="U189">
+        <v>45</v>
+      </c>
+      <c r="V189" s="5" t="s">
+        <v>3217</v>
+      </c>
+      <c r="W189">
+        <v>55</v>
+      </c>
+      <c r="X189" s="5" t="s">
+        <v>3218</v>
+      </c>
+      <c r="Y189">
+        <v>35</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" ht="16">
+      <c r="A190">
+        <v>2021</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C190" t="s">
+        <v>515</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F190">
+        <v>23</v>
+      </c>
+      <c r="G190">
+        <v>75</v>
+      </c>
+      <c r="H190">
+        <v>195</v>
+      </c>
+      <c r="I190" t="s">
+        <v>27</v>
+      </c>
+      <c r="J190" t="s">
+        <v>27</v>
+      </c>
+      <c r="K190" t="s">
+        <v>144</v>
+      </c>
+      <c r="L190" t="s">
+        <v>287</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>3220</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>3221</v>
+      </c>
+      <c r="O190">
+        <v>30</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>3222</v>
+      </c>
+      <c r="Q190">
+        <v>50</v>
+      </c>
+      <c r="R190" s="5" t="s">
+        <v>3223</v>
+      </c>
+      <c r="S190">
+        <v>45</v>
+      </c>
+      <c r="T190" s="5" t="s">
+        <v>3224</v>
+      </c>
+      <c r="U190">
+        <v>55</v>
+      </c>
+      <c r="V190" s="5" t="s">
+        <v>3225</v>
+      </c>
+      <c r="W190">
+        <v>50</v>
+      </c>
+      <c r="X190" s="5" t="s">
+        <v>3226</v>
+      </c>
+      <c r="Y190">
+        <v>35</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" ht="16">
+      <c r="A191">
+        <v>2021</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C191" t="s">
+        <v>515</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191">
+        <v>74</v>
+      </c>
+      <c r="H191">
+        <v>205</v>
+      </c>
+      <c r="I191" t="s">
+        <v>27</v>
+      </c>
+      <c r="J191" t="s">
+        <v>27</v>
+      </c>
+      <c r="K191" t="s">
+        <v>3253</v>
+      </c>
+      <c r="L191">
+        <v>2023</v>
+      </c>
+      <c r="M191" s="5" t="s">
+        <v>3254</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>3255</v>
+      </c>
+      <c r="O191">
+        <v>40</v>
+      </c>
+      <c r="P191" s="5" t="s">
+        <v>3256</v>
+      </c>
+      <c r="Q191">
+        <v>50</v>
+      </c>
+      <c r="R191" s="6" t="s">
+        <v>3257</v>
+      </c>
+      <c r="S191">
+        <v>50</v>
+      </c>
+      <c r="T191" s="5" t="s">
+        <v>3258</v>
+      </c>
+      <c r="U191">
+        <v>55</v>
+      </c>
+      <c r="V191" s="5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="W191">
+        <v>50</v>
+      </c>
+      <c r="X191" s="5" t="s">
+        <v>3260</v>
+      </c>
+      <c r="Y191">
+        <v>35</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" ht="16">
+      <c r="A192">
+        <v>2021</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C192" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E192" t="s">
+        <v>572</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192">
+        <v>71</v>
+      </c>
+      <c r="H192">
+        <v>175</v>
+      </c>
+      <c r="I192" t="s">
+        <v>27</v>
+      </c>
+      <c r="J192" t="s">
+        <v>27</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L192">
+        <v>2022</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>3262</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>3263</v>
+      </c>
+      <c r="O192">
+        <v>40</v>
+      </c>
+      <c r="P192" s="6" t="s">
+        <v>3264</v>
+      </c>
+      <c r="Q192">
+        <v>30</v>
+      </c>
+      <c r="R192" s="5" t="s">
+        <v>3265</v>
+      </c>
+      <c r="S192">
+        <v>55</v>
+      </c>
+      <c r="T192" s="5" t="s">
+        <v>3266</v>
+      </c>
+      <c r="U192">
+        <v>55</v>
+      </c>
+      <c r="V192" s="5" t="s">
+        <v>3267</v>
+      </c>
+      <c r="W192">
+        <v>55</v>
+      </c>
+      <c r="X192" s="5" t="s">
+        <v>3268</v>
+      </c>
+      <c r="Y192">
+        <v>35</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" ht="16">
+      <c r="A193">
+        <v>2021</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C193" t="s">
+        <v>173</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F193">
+        <v>23</v>
+      </c>
+      <c r="G193">
+        <v>74</v>
+      </c>
+      <c r="H193">
+        <v>180</v>
+      </c>
+      <c r="I193" t="s">
+        <v>27</v>
+      </c>
+      <c r="J193" t="s">
+        <v>27</v>
+      </c>
+      <c r="K193" t="s">
+        <v>3270</v>
+      </c>
+      <c r="L193">
+        <v>2022</v>
+      </c>
+      <c r="M193" s="5" t="s">
+        <v>3271</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>3272</v>
+      </c>
+      <c r="O193">
+        <v>40</v>
+      </c>
+      <c r="P193" s="5" t="s">
+        <v>3273</v>
+      </c>
+      <c r="Q193">
+        <v>30</v>
+      </c>
+      <c r="R193" s="5" t="s">
+        <v>3273</v>
+      </c>
+      <c r="S193">
+        <v>55</v>
+      </c>
+      <c r="T193" s="6" t="s">
+        <v>3274</v>
+      </c>
+      <c r="U193">
+        <v>50</v>
+      </c>
+      <c r="V193" s="5" t="s">
+        <v>3275</v>
+      </c>
+      <c r="W193">
+        <v>70</v>
+      </c>
+      <c r="X193" s="5" t="s">
+        <v>3276</v>
+      </c>
+      <c r="Y193">
+        <v>30</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" ht="16">
+      <c r="A194">
+        <v>2021</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E194" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F194">
+        <v>21</v>
+      </c>
+      <c r="G194">
+        <v>76</v>
+      </c>
+      <c r="H194">
+        <v>238</v>
+      </c>
+      <c r="I194" t="s">
+        <v>163</v>
+      </c>
+      <c r="J194" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L194">
+        <v>2022</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>3280</v>
+      </c>
+      <c r="N194" s="6" t="s">
+        <v>3281</v>
+      </c>
+      <c r="O194">
+        <v>55</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>3282</v>
+      </c>
+      <c r="Q194">
+        <v>70</v>
+      </c>
+      <c r="R194" s="5" t="s">
+        <v>3283</v>
+      </c>
+      <c r="S194">
+        <v>50</v>
+      </c>
+      <c r="T194" s="5" t="s">
+        <v>3284</v>
+      </c>
+      <c r="U194">
+        <v>60</v>
+      </c>
+      <c r="V194" s="5" t="s">
+        <v>3285</v>
+      </c>
+      <c r="W194">
+        <v>40</v>
+      </c>
+      <c r="X194" s="5" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Y194">
+        <v>55</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" ht="16">
+      <c r="A195">
+        <v>2021</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E195" t="s">
+        <v>80</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195">
+        <v>71</v>
+      </c>
+      <c r="H195">
+        <v>180</v>
+      </c>
+      <c r="I195" t="s">
+        <v>27</v>
+      </c>
+      <c r="J195" t="s">
+        <v>27</v>
+      </c>
+      <c r="K195" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L195">
+        <v>2021</v>
+      </c>
+      <c r="M195" s="5" t="s">
+        <v>3289</v>
+      </c>
+      <c r="N195" s="5" t="s">
+        <v>3290</v>
+      </c>
+      <c r="O195">
+        <v>55</v>
+      </c>
+      <c r="P195" s="5" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Q195">
+        <v>55</v>
+      </c>
+      <c r="R195" s="5" t="s">
+        <v>3292</v>
+      </c>
+      <c r="S195">
+        <v>50</v>
+      </c>
+      <c r="T195" s="5" t="s">
+        <v>3293</v>
+      </c>
+      <c r="U195">
+        <v>45</v>
+      </c>
+      <c r="V195" s="5" t="s">
+        <v>3294</v>
+      </c>
+      <c r="W195">
+        <v>55</v>
+      </c>
+      <c r="X195" s="5" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Y195">
+        <v>55</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" ht="16">
+      <c r="A196">
+        <v>2021</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E196" t="s">
+        <v>196</v>
+      </c>
+      <c r="F196">
+        <v>26</v>
+      </c>
+      <c r="G196">
+        <v>76</v>
+      </c>
+      <c r="H196">
+        <v>225</v>
+      </c>
+      <c r="I196" t="s">
+        <v>27</v>
+      </c>
+      <c r="J196" t="s">
+        <v>27</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L196" t="s">
+        <v>58</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>3305</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>3306</v>
+      </c>
+      <c r="O196">
+        <v>40</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>3307</v>
+      </c>
+      <c r="Q196">
+        <v>60</v>
+      </c>
+      <c r="R196" s="5" t="s">
+        <v>3308</v>
+      </c>
+      <c r="S196">
+        <v>50</v>
+      </c>
+      <c r="T196" s="5" t="s">
+        <v>3309</v>
+      </c>
+      <c r="U196">
+        <v>55</v>
+      </c>
+      <c r="V196" s="5" t="s">
+        <v>3310</v>
+      </c>
+      <c r="W196">
+        <v>45</v>
+      </c>
+      <c r="X196" s="5" t="s">
+        <v>3311</v>
+      </c>
+      <c r="Y196">
+        <v>50</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" ht="16">
+      <c r="A197">
+        <v>2021</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C197" t="s">
+        <v>173</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E197" t="s">
+        <v>196</v>
+      </c>
+      <c r="F197">
+        <v>24</v>
+      </c>
+      <c r="G197">
+        <v>74</v>
+      </c>
+      <c r="H197">
+        <v>200</v>
+      </c>
+      <c r="I197" t="s">
+        <v>163</v>
+      </c>
+      <c r="J197" t="s">
+        <v>27</v>
+      </c>
+      <c r="K197" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L197">
+        <v>2021</v>
+      </c>
+      <c r="M197" s="5" t="s">
+        <v>3339</v>
+      </c>
+      <c r="N197" s="5" t="s">
+        <v>3340</v>
+      </c>
+      <c r="O197">
+        <v>50</v>
+      </c>
+      <c r="P197" s="5" t="s">
+        <v>3341</v>
+      </c>
+      <c r="Q197">
+        <v>50</v>
+      </c>
+      <c r="R197" s="5" t="s">
+        <v>3342</v>
+      </c>
+      <c r="S197">
+        <v>45</v>
+      </c>
+      <c r="T197" s="6" t="s">
+        <v>3343</v>
+      </c>
+      <c r="U197">
+        <v>45</v>
+      </c>
+      <c r="V197" s="5" t="s">
+        <v>3344</v>
+      </c>
+      <c r="W197">
+        <v>70</v>
+      </c>
+      <c r="X197" s="5" t="s">
+        <v>3345</v>
+      </c>
+      <c r="Y197">
+        <v>45</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" ht="16">
+      <c r="A198">
+        <v>2021</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C198" t="s">
+        <v>257</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E198" t="s">
+        <v>505</v>
+      </c>
+      <c r="F198">
+        <v>19</v>
+      </c>
+      <c r="G198">
+        <v>72</v>
+      </c>
+      <c r="H198">
+        <v>200</v>
+      </c>
+      <c r="I198" t="s">
+        <v>27</v>
+      </c>
+      <c r="J198" t="s">
+        <v>27</v>
+      </c>
+      <c r="K198" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L198">
+        <v>2024</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>3356</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>3357</v>
+      </c>
+      <c r="O198">
+        <v>55</v>
+      </c>
+      <c r="P198" s="5" t="s">
+        <v>3358</v>
+      </c>
+      <c r="Q198">
+        <v>50</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>3359</v>
+      </c>
+      <c r="S198">
+        <v>50</v>
+      </c>
+      <c r="T198" s="5" t="s">
+        <v>3360</v>
+      </c>
+      <c r="U198">
+        <v>45</v>
+      </c>
+      <c r="V198" s="5" t="s">
+        <v>3361</v>
+      </c>
+      <c r="W198">
+        <v>50</v>
+      </c>
+      <c r="X198" s="5" t="s">
+        <v>3362</v>
+      </c>
+      <c r="Y198">
+        <v>45</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" ht="16">
+      <c r="A199">
+        <v>2021</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C199" t="s">
+        <v>173</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E199" t="s">
+        <v>80</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199">
+        <v>71</v>
+      </c>
+      <c r="H199">
+        <v>170</v>
+      </c>
+      <c r="I199" t="s">
+        <v>175</v>
+      </c>
+      <c r="J199" t="s">
+        <v>27</v>
+      </c>
+      <c r="K199" t="s">
+        <v>90</v>
+      </c>
+      <c r="L199">
+        <v>2021</v>
+      </c>
+      <c r="M199" s="5" t="s">
+        <v>3364</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="O199">
+        <v>50</v>
+      </c>
+      <c r="P199" s="5" t="s">
+        <v>3366</v>
+      </c>
+      <c r="Q199">
+        <v>30</v>
+      </c>
+      <c r="R199" s="5" t="s">
+        <v>3367</v>
+      </c>
+      <c r="S199">
+        <v>55</v>
+      </c>
+      <c r="T199" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="U199">
+        <v>60</v>
+      </c>
+      <c r="V199" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="W199">
+        <v>70</v>
+      </c>
+      <c r="X199" s="5" t="s">
+        <v>3370</v>
+      </c>
+      <c r="Y199">
+        <v>45</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" ht="16">
+      <c r="A200">
+        <v>2021</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E200" t="s">
+        <v>505</v>
+      </c>
+      <c r="F200">
+        <v>18</v>
+      </c>
+      <c r="G200">
+        <v>74</v>
+      </c>
+      <c r="H200">
+        <v>220</v>
+      </c>
+      <c r="I200" t="s">
+        <v>27</v>
+      </c>
+      <c r="J200" t="s">
+        <v>27</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L200">
+        <v>2024</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>3372</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>3373</v>
+      </c>
+      <c r="O200">
+        <v>45</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>3374</v>
+      </c>
+      <c r="Q200">
+        <v>60</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>3375</v>
+      </c>
+      <c r="S200">
+        <v>45</v>
+      </c>
+      <c r="T200" s="5" t="s">
+        <v>3376</v>
+      </c>
+      <c r="U200">
+        <v>45</v>
+      </c>
+      <c r="V200" s="5" t="s">
+        <v>3377</v>
+      </c>
+      <c r="W200">
+        <v>40</v>
+      </c>
+      <c r="X200" s="6" t="s">
+        <v>3378</v>
+      </c>
+      <c r="Y200">
+        <v>45</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" ht="16">
+      <c r="B201" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C201" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E201" t="s">
+        <v>505</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201">
+        <v>74</v>
+      </c>
+      <c r="H201">
+        <v>178</v>
+      </c>
+      <c r="I201" t="s">
+        <v>27</v>
+      </c>
+      <c r="J201" t="s">
+        <v>27</v>
+      </c>
+      <c r="K201" t="s">
+        <v>3380</v>
+      </c>
+      <c r="L201" t="s">
+        <v>287</v>
+      </c>
+      <c r="M201" s="5" t="s">
+        <v>3381</v>
+      </c>
+      <c r="N201" s="5" t="s">
+        <v>3382</v>
+      </c>
+      <c r="O201">
+        <v>40</v>
+      </c>
+      <c r="P201" s="5" t="s">
+        <v>3383</v>
+      </c>
+      <c r="Q201">
+        <v>50</v>
+      </c>
+      <c r="R201" s="5" t="s">
+        <v>3384</v>
+      </c>
+      <c r="S201">
+        <v>50</v>
+      </c>
+      <c r="T201" s="5" t="s">
+        <v>3385</v>
+      </c>
+      <c r="U201">
+        <v>50</v>
+      </c>
+      <c r="V201" s="5" t="s">
+        <v>3386</v>
+      </c>
+      <c r="W201">
+        <v>50</v>
+      </c>
+      <c r="X201" s="6" t="s">
+        <v>3387</v>
+      </c>
+      <c r="Y201">
+        <v>40</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" ht="16">
+      <c r="B202" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C202" t="s">
+        <v>173</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202">
+        <v>73</v>
+      </c>
+      <c r="H202">
+        <v>191</v>
+      </c>
+      <c r="I202" t="s">
+        <v>163</v>
+      </c>
+      <c r="J202" t="s">
+        <v>163</v>
+      </c>
+      <c r="K202" t="s">
+        <v>144</v>
+      </c>
+      <c r="L202" t="s">
+        <v>287</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>3389</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>3390</v>
+      </c>
+      <c r="O202">
+        <v>55</v>
+      </c>
+      <c r="P202" s="6" t="s">
+        <v>3391</v>
+      </c>
+      <c r="Q202">
+        <v>40</v>
+      </c>
+      <c r="R202" s="5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="S202">
+        <v>60</v>
+      </c>
+      <c r="T202" s="5" t="s">
+        <v>3393</v>
+      </c>
+      <c r="U202">
+        <v>55</v>
+      </c>
+      <c r="V202" s="5" t="s">
+        <v>3394</v>
+      </c>
+      <c r="W202">
+        <v>55</v>
+      </c>
+      <c r="X202" s="6" t="s">
+        <v>3395</v>
+      </c>
+      <c r="Y202">
+        <v>40</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" ht="16">
+      <c r="B203" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C203" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E203" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203">
+        <v>20</v>
+      </c>
+      <c r="G203">
+        <v>73</v>
+      </c>
+      <c r="H203">
+        <v>186</v>
+      </c>
+      <c r="I203" t="s">
+        <v>27</v>
+      </c>
+      <c r="J203" t="s">
+        <v>27</v>
+      </c>
+      <c r="K203" t="s">
+        <v>3406</v>
+      </c>
+      <c r="L203">
+        <v>2023</v>
+      </c>
+      <c r="M203" s="5" t="s">
+        <v>3407</v>
+      </c>
+      <c r="N203" s="5" t="s">
+        <v>3408</v>
+      </c>
+      <c r="O203">
+        <v>45</v>
+      </c>
+      <c r="P203" s="5" t="s">
+        <v>3409</v>
+      </c>
+      <c r="Q203">
+        <v>50</v>
+      </c>
+      <c r="R203" s="5" t="s">
+        <v>3410</v>
+      </c>
+      <c r="S203">
+        <v>50</v>
+      </c>
+      <c r="T203" s="6" t="s">
+        <v>3411</v>
+      </c>
+      <c r="U203">
+        <v>55</v>
+      </c>
+      <c r="V203" s="5" t="s">
+        <v>3412</v>
+      </c>
+      <c r="W203">
+        <v>60</v>
+      </c>
+      <c r="X203" s="5" t="s">
+        <v>3413</v>
+      </c>
+      <c r="Y203">
+        <v>40</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" ht="16">
+      <c r="B204" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C204" t="s">
+        <v>515</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E204" t="s">
+        <v>196</v>
+      </c>
+      <c r="F204">
+        <v>22</v>
+      </c>
+      <c r="G204">
+        <v>75</v>
+      </c>
+      <c r="H204">
+        <v>220</v>
+      </c>
+      <c r="I204" t="s">
+        <v>27</v>
+      </c>
+      <c r="J204" t="s">
+        <v>27</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L204" t="s">
+        <v>287</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>3424</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>3425</v>
+      </c>
+      <c r="O204">
+        <v>40</v>
+      </c>
+      <c r="P204" s="5" t="s">
+        <v>3426</v>
+      </c>
+      <c r="Q204">
+        <v>50</v>
+      </c>
+      <c r="R204" s="5" t="s">
+        <v>3427</v>
+      </c>
+      <c r="S204">
+        <v>45</v>
+      </c>
+      <c r="T204" s="5" t="s">
+        <v>3428</v>
+      </c>
+      <c r="U204">
+        <v>55</v>
+      </c>
+      <c r="V204" s="5" t="s">
+        <v>3429</v>
+      </c>
+      <c r="W204">
+        <v>40</v>
+      </c>
+      <c r="X204" s="5" t="s">
+        <v>3430</v>
+      </c>
+      <c r="Y204">
+        <v>40</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" ht="16">
+      <c r="B205" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C205" t="s">
+        <v>79</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E205" t="s">
+        <v>196</v>
+      </c>
+      <c r="F205">
+        <v>18</v>
+      </c>
+      <c r="G205">
+        <v>70</v>
+      </c>
+      <c r="H205">
+        <v>140</v>
+      </c>
+      <c r="I205" t="s">
+        <v>175</v>
+      </c>
+      <c r="J205" t="s">
+        <v>27</v>
+      </c>
+      <c r="K205" t="s">
+        <v>999</v>
+      </c>
+      <c r="L205">
+        <v>2022</v>
+      </c>
+      <c r="M205" s="5" t="s">
+        <v>3432</v>
+      </c>
+      <c r="N205" s="5" t="s">
+        <v>3433</v>
+      </c>
+      <c r="O205">
+        <v>55</v>
+      </c>
+      <c r="P205" s="5" t="s">
+        <v>3434</v>
+      </c>
+      <c r="Q205">
+        <v>45</v>
+      </c>
+      <c r="R205" s="5" t="s">
+        <v>3435</v>
+      </c>
+      <c r="S205">
+        <v>50</v>
+      </c>
+      <c r="T205" s="5" t="s">
+        <v>3436</v>
+      </c>
+      <c r="U205">
+        <v>70</v>
+      </c>
+      <c r="V205" s="5" t="s">
+        <v>3437</v>
+      </c>
+      <c r="W205">
+        <v>50</v>
+      </c>
+      <c r="X205" s="5" t="s">
+        <v>3438</v>
+      </c>
+      <c r="Y205">
+        <v>40</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -37142,15 +42311,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC1B1F0-2428-4332-BD89-62B17D077559}">
-  <dimension ref="A1:AI162"/>
+  <dimension ref="A1:AI190"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -50443,7 +55612,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="2:35">
+    <row r="145" spans="1:35">
+      <c r="A145">
+        <v>2021</v>
+      </c>
       <c r="B145" t="s">
         <v>2695</v>
       </c>
@@ -50538,7 +55710,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="2:35">
+    <row r="146" spans="1:35">
+      <c r="A146">
+        <v>2021</v>
+      </c>
       <c r="B146" t="s">
         <v>2712</v>
       </c>
@@ -50633,7 +55808,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="2:35">
+    <row r="147" spans="1:35">
+      <c r="A147">
+        <v>2021</v>
+      </c>
       <c r="B147" t="s">
         <v>2721</v>
       </c>
@@ -50728,7 +55906,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="2:35">
+    <row r="148" spans="1:35">
+      <c r="A148">
+        <v>2021</v>
+      </c>
       <c r="B148" t="s">
         <v>2730</v>
       </c>
@@ -50823,7 +56004,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="1:35">
+      <c r="A149">
+        <v>2021</v>
+      </c>
       <c r="B149" t="s">
         <v>2755</v>
       </c>
@@ -50918,7 +56102,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="2:35">
+    <row r="150" spans="1:35">
+      <c r="A150">
+        <v>2021</v>
+      </c>
       <c r="B150" t="s">
         <v>2765</v>
       </c>
@@ -51013,7 +56200,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="2:35">
+    <row r="151" spans="1:35">
+      <c r="A151">
+        <v>2021</v>
+      </c>
       <c r="B151" t="s">
         <v>2775</v>
       </c>
@@ -51090,7 +56280,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="1:35">
+      <c r="A152">
+        <v>2021</v>
+      </c>
       <c r="B152" t="s">
         <v>2783</v>
       </c>
@@ -51176,7 +56369,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="2:35">
+    <row r="153" spans="1:35">
+      <c r="A153">
+        <v>2021</v>
+      </c>
       <c r="B153" t="s">
         <v>2816</v>
       </c>
@@ -51253,7 +56449,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="2:35">
+    <row r="154" spans="1:35">
+      <c r="A154">
+        <v>2021</v>
+      </c>
       <c r="B154" t="s">
         <v>2823</v>
       </c>
@@ -51339,7 +56538,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="2:35">
+    <row r="155" spans="1:35">
+      <c r="A155">
+        <v>2021</v>
+      </c>
       <c r="B155" t="s">
         <v>2839</v>
       </c>
@@ -51434,7 +56636,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="156" spans="2:35">
+    <row r="156" spans="1:35">
+      <c r="A156">
+        <v>2021</v>
+      </c>
       <c r="B156" t="s">
         <v>2857</v>
       </c>
@@ -51511,7 +56716,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="2:35">
+    <row r="157" spans="1:35">
+      <c r="A157">
+        <v>2021</v>
+      </c>
       <c r="B157" t="s">
         <v>2891</v>
       </c>
@@ -51606,7 +56814,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="2:35">
+    <row r="158" spans="1:35">
+      <c r="A158">
+        <v>2021</v>
+      </c>
       <c r="B158" t="s">
         <v>2901</v>
       </c>
@@ -51701,7 +56912,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="2:35">
+    <row r="159" spans="1:35">
+      <c r="A159">
+        <v>2021</v>
+      </c>
       <c r="B159" t="s">
         <v>2937</v>
       </c>
@@ -51796,7 +57010,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:35">
+    <row r="160" spans="1:35">
+      <c r="A160">
+        <v>2021</v>
+      </c>
       <c r="B160" t="s">
         <v>2955</v>
       </c>
@@ -51891,7 +57108,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="161" spans="2:35">
+    <row r="161" spans="1:35">
+      <c r="A161">
+        <v>2021</v>
+      </c>
       <c r="B161" t="s">
         <v>2974</v>
       </c>
@@ -51986,7 +57206,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="2:35">
+    <row r="162" spans="1:35">
+      <c r="A162">
+        <v>2021</v>
+      </c>
       <c r="B162" t="s">
         <v>2983</v>
       </c>
@@ -52070,6 +57293,2393 @@
       </c>
       <c r="AI162" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" ht="16">
+      <c r="A163">
+        <v>2021</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C163" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E163" t="s">
+        <v>417</v>
+      </c>
+      <c r="F163">
+        <v>26</v>
+      </c>
+      <c r="G163">
+        <v>74</v>
+      </c>
+      <c r="H163">
+        <v>215</v>
+      </c>
+      <c r="I163" t="s">
+        <v>163</v>
+      </c>
+      <c r="J163" t="s">
+        <v>163</v>
+      </c>
+      <c r="K163" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L163" t="s">
+        <v>58</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>3033</v>
+      </c>
+      <c r="N163" s="5" t="s">
+        <v>3034</v>
+      </c>
+      <c r="O163" t="s">
+        <v>62</v>
+      </c>
+      <c r="P163" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="Q163">
+        <v>50</v>
+      </c>
+      <c r="U163" t="s">
+        <v>66</v>
+      </c>
+      <c r="V163" s="5" t="s">
+        <v>3036</v>
+      </c>
+      <c r="W163">
+        <v>30</v>
+      </c>
+      <c r="X163" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y163" s="5" t="s">
+        <v>3037</v>
+      </c>
+      <c r="Z163">
+        <v>45</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB163" s="5" t="s">
+        <v>3038</v>
+      </c>
+      <c r="AC163">
+        <v>50</v>
+      </c>
+      <c r="AD163" s="5" t="s">
+        <v>3039</v>
+      </c>
+      <c r="AE163">
+        <v>55</v>
+      </c>
+      <c r="AF163">
+        <v>50</v>
+      </c>
+      <c r="AG163" s="5" t="s">
+        <v>3040</v>
+      </c>
+      <c r="AH163">
+        <v>40</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35" ht="16">
+      <c r="B164" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C164" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E164" t="s">
+        <v>572</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164">
+        <v>74</v>
+      </c>
+      <c r="H164">
+        <v>170</v>
+      </c>
+      <c r="I164" t="s">
+        <v>163</v>
+      </c>
+      <c r="J164" t="s">
+        <v>163</v>
+      </c>
+      <c r="K164" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L164">
+        <v>2022</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>3042</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>3043</v>
+      </c>
+      <c r="O164" t="s">
+        <v>62</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>3044</v>
+      </c>
+      <c r="Q164">
+        <v>45</v>
+      </c>
+      <c r="U164" t="s">
+        <v>1222</v>
+      </c>
+      <c r="V164" s="5" t="s">
+        <v>3045</v>
+      </c>
+      <c r="W164">
+        <v>55</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB164" s="5" t="s">
+        <v>3046</v>
+      </c>
+      <c r="AC164">
+        <v>50</v>
+      </c>
+      <c r="AD164" s="5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="AE164">
+        <v>55</v>
+      </c>
+      <c r="AF164">
+        <v>50</v>
+      </c>
+      <c r="AG164" s="5" t="s">
+        <v>3048</v>
+      </c>
+      <c r="AH164">
+        <v>40</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35" ht="16">
+      <c r="B165" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C165" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F165">
+        <v>25</v>
+      </c>
+      <c r="G165">
+        <v>74</v>
+      </c>
+      <c r="H165">
+        <v>235</v>
+      </c>
+      <c r="I165" t="s">
+        <v>163</v>
+      </c>
+      <c r="J165" t="s">
+        <v>163</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L165" t="s">
+        <v>287</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>3050</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>3051</v>
+      </c>
+      <c r="O165" t="s">
+        <v>62</v>
+      </c>
+      <c r="P165" s="5" t="s">
+        <v>3052</v>
+      </c>
+      <c r="Q165">
+        <v>45</v>
+      </c>
+      <c r="U165" t="s">
+        <v>66</v>
+      </c>
+      <c r="V165" s="5" t="s">
+        <v>3053</v>
+      </c>
+      <c r="W165">
+        <v>50</v>
+      </c>
+      <c r="X165" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y165" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="Z165">
+        <v>40</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB165" s="5" t="s">
+        <v>3055</v>
+      </c>
+      <c r="AC165">
+        <v>40</v>
+      </c>
+      <c r="AD165" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="AE165">
+        <v>55</v>
+      </c>
+      <c r="AF165">
+        <v>45</v>
+      </c>
+      <c r="AG165" s="5" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AH165">
+        <v>40</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" ht="16">
+      <c r="B166" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F166">
+        <v>24</v>
+      </c>
+      <c r="G166">
+        <v>73</v>
+      </c>
+      <c r="H166">
+        <v>190</v>
+      </c>
+      <c r="I166" t="s">
+        <v>163</v>
+      </c>
+      <c r="J166" t="s">
+        <v>163</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L166" t="s">
+        <v>287</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>3076</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>3077</v>
+      </c>
+      <c r="O166" t="s">
+        <v>62</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>3078</v>
+      </c>
+      <c r="Q166">
+        <v>45</v>
+      </c>
+      <c r="U166" t="s">
+        <v>66</v>
+      </c>
+      <c r="V166" s="5" t="s">
+        <v>3079</v>
+      </c>
+      <c r="W166">
+        <v>50</v>
+      </c>
+      <c r="X166" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y166" s="5" t="s">
+        <v>3080</v>
+      </c>
+      <c r="Z166">
+        <v>40</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB166" s="5" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AC166">
+        <v>55</v>
+      </c>
+      <c r="AD166" s="5" t="s">
+        <v>3082</v>
+      </c>
+      <c r="AE166">
+        <v>60</v>
+      </c>
+      <c r="AF166">
+        <v>60</v>
+      </c>
+      <c r="AG166" s="5" t="s">
+        <v>3083</v>
+      </c>
+      <c r="AH166">
+        <v>40</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" ht="16">
+      <c r="B167" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E167" t="s">
+        <v>417</v>
+      </c>
+      <c r="F167">
+        <v>24</v>
+      </c>
+      <c r="G167">
+        <v>77</v>
+      </c>
+      <c r="H167">
+        <v>200</v>
+      </c>
+      <c r="I167" t="s">
+        <v>27</v>
+      </c>
+      <c r="J167" t="s">
+        <v>163</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L167">
+        <v>2021</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>3084</v>
+      </c>
+      <c r="N167" s="5" t="s">
+        <v>3085</v>
+      </c>
+      <c r="O167" t="s">
+        <v>62</v>
+      </c>
+      <c r="P167" s="5" t="s">
+        <v>3086</v>
+      </c>
+      <c r="Q167">
+        <v>45</v>
+      </c>
+      <c r="X167" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y167" s="6" t="s">
+        <v>3087</v>
+      </c>
+      <c r="Z167">
+        <v>40</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB167" s="5" t="s">
+        <v>3088</v>
+      </c>
+      <c r="AC167">
+        <v>40</v>
+      </c>
+      <c r="AD167" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="AE167">
+        <v>50</v>
+      </c>
+      <c r="AF167">
+        <v>40</v>
+      </c>
+      <c r="AG167" s="5" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AH167">
+        <v>40</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" ht="16">
+      <c r="B168" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E168" t="s">
+        <v>572</v>
+      </c>
+      <c r="F168">
+        <v>24</v>
+      </c>
+      <c r="G168">
+        <v>76</v>
+      </c>
+      <c r="H168">
+        <v>220</v>
+      </c>
+      <c r="I168" t="s">
+        <v>27</v>
+      </c>
+      <c r="J168" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L168" t="s">
+        <v>287</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>3093</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>3094</v>
+      </c>
+      <c r="O168" t="s">
+        <v>62</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>3095</v>
+      </c>
+      <c r="Q168">
+        <v>60</v>
+      </c>
+      <c r="X168" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y168" s="5" t="s">
+        <v>3096</v>
+      </c>
+      <c r="Z168">
+        <v>55</v>
+      </c>
+      <c r="AD168" s="5" t="s">
+        <v>3097</v>
+      </c>
+      <c r="AE168">
+        <v>45</v>
+      </c>
+      <c r="AF168">
+        <v>40</v>
+      </c>
+      <c r="AG168" s="6" t="s">
+        <v>3098</v>
+      </c>
+      <c r="AH168">
+        <v>40</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35" ht="16">
+      <c r="B169" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C169" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F169">
+        <v>24</v>
+      </c>
+      <c r="G169">
+        <v>76</v>
+      </c>
+      <c r="H169">
+        <v>190</v>
+      </c>
+      <c r="I169" t="s">
+        <v>27</v>
+      </c>
+      <c r="J169" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L169">
+        <v>2021</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>3100</v>
+      </c>
+      <c r="N169" s="5" t="s">
+        <v>3101</v>
+      </c>
+      <c r="O169" t="s">
+        <v>62</v>
+      </c>
+      <c r="P169" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="Q169">
+        <v>50</v>
+      </c>
+      <c r="U169" t="s">
+        <v>66</v>
+      </c>
+      <c r="V169" s="5" t="s">
+        <v>3103</v>
+      </c>
+      <c r="W169">
+        <v>55</v>
+      </c>
+      <c r="X169" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y169" s="5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="Z169">
+        <v>45</v>
+      </c>
+      <c r="AD169" s="5" t="s">
+        <v>3105</v>
+      </c>
+      <c r="AE169">
+        <v>40</v>
+      </c>
+      <c r="AF169">
+        <v>30</v>
+      </c>
+      <c r="AG169" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="AH169">
+        <v>40</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35" ht="16">
+      <c r="B170" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F170">
+        <v>26</v>
+      </c>
+      <c r="G170">
+        <v>76</v>
+      </c>
+      <c r="H170">
+        <v>210</v>
+      </c>
+      <c r="I170" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170" t="s">
+        <v>3143</v>
+      </c>
+      <c r="L170" t="s">
+        <v>58</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="N170" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="O170" t="s">
+        <v>62</v>
+      </c>
+      <c r="P170" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="Q170">
+        <v>60</v>
+      </c>
+      <c r="U170" t="s">
+        <v>66</v>
+      </c>
+      <c r="V170" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="W170">
+        <v>50</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB170" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="AC170">
+        <v>40</v>
+      </c>
+      <c r="AD170" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AE170">
+        <v>50</v>
+      </c>
+      <c r="AF170">
+        <v>40</v>
+      </c>
+      <c r="AG170" s="5" t="s">
+        <v>3150</v>
+      </c>
+      <c r="AH170">
+        <v>40</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" ht="16">
+      <c r="B171" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E171" t="s">
+        <v>572</v>
+      </c>
+      <c r="F171">
+        <v>25</v>
+      </c>
+      <c r="G171">
+        <v>74</v>
+      </c>
+      <c r="H171">
+        <v>205</v>
+      </c>
+      <c r="I171" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" t="s">
+        <v>27</v>
+      </c>
+      <c r="K171" t="s">
+        <v>3152</v>
+      </c>
+      <c r="L171" t="s">
+        <v>58</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>3153</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>3154</v>
+      </c>
+      <c r="O171" t="s">
+        <v>62</v>
+      </c>
+      <c r="P171" s="5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="Q171">
+        <v>50</v>
+      </c>
+      <c r="X171" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y171" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="Z171">
+        <v>45</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB171" s="5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="AC171">
+        <v>50</v>
+      </c>
+      <c r="AD171" s="5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AE171">
+        <v>50</v>
+      </c>
+      <c r="AF171">
+        <v>45</v>
+      </c>
+      <c r="AG171" s="5" t="s">
+        <v>3159</v>
+      </c>
+      <c r="AH171">
+        <v>40</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35" ht="16">
+      <c r="B172" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F172">
+        <v>23</v>
+      </c>
+      <c r="G172">
+        <v>74</v>
+      </c>
+      <c r="H172">
+        <v>190</v>
+      </c>
+      <c r="I172" t="s">
+        <v>163</v>
+      </c>
+      <c r="J172" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" t="s">
+        <v>3170</v>
+      </c>
+      <c r="L172">
+        <v>2023</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="O172" t="s">
+        <v>62</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Q172">
+        <v>40</v>
+      </c>
+      <c r="U172" t="s">
+        <v>66</v>
+      </c>
+      <c r="V172" s="5" t="s">
+        <v>3173</v>
+      </c>
+      <c r="W172">
+        <v>50</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB172" s="5" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AC172">
+        <v>50</v>
+      </c>
+      <c r="AD172" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AE172">
+        <v>50</v>
+      </c>
+      <c r="AF172">
+        <v>40</v>
+      </c>
+      <c r="AG172" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="AH172">
+        <v>40</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" ht="16">
+      <c r="B173" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173">
+        <v>77</v>
+      </c>
+      <c r="H173">
+        <v>183</v>
+      </c>
+      <c r="I173" t="s">
+        <v>163</v>
+      </c>
+      <c r="J173" t="s">
+        <v>163</v>
+      </c>
+      <c r="K173" t="s">
+        <v>176</v>
+      </c>
+      <c r="L173">
+        <v>2024</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O173" t="s">
+        <v>62</v>
+      </c>
+      <c r="P173" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q173">
+        <v>50</v>
+      </c>
+      <c r="U173" t="s">
+        <v>66</v>
+      </c>
+      <c r="V173" s="5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="W173">
+        <v>50</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB173" s="6" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AC173">
+        <v>45</v>
+      </c>
+      <c r="AD173" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="AE173">
+        <v>50</v>
+      </c>
+      <c r="AF173">
+        <v>45</v>
+      </c>
+      <c r="AG173" s="5" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AH173">
+        <v>40</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35" ht="16">
+      <c r="B174" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E174" t="s">
+        <v>417</v>
+      </c>
+      <c r="F174">
+        <v>25</v>
+      </c>
+      <c r="G174">
+        <v>75</v>
+      </c>
+      <c r="H174">
+        <v>165</v>
+      </c>
+      <c r="I174" t="s">
+        <v>27</v>
+      </c>
+      <c r="J174" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" t="s">
+        <v>3194</v>
+      </c>
+      <c r="L174">
+        <v>2021</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>3195</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>3196</v>
+      </c>
+      <c r="O174" t="s">
+        <v>62</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>3197</v>
+      </c>
+      <c r="Q174">
+        <v>55</v>
+      </c>
+      <c r="U174" t="s">
+        <v>66</v>
+      </c>
+      <c r="V174" s="5" t="s">
+        <v>3198</v>
+      </c>
+      <c r="W174">
+        <v>45</v>
+      </c>
+      <c r="X174" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y174" s="6" t="s">
+        <v>3199</v>
+      </c>
+      <c r="Z174">
+        <v>50</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB174" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AC174">
+        <v>40</v>
+      </c>
+      <c r="AD174" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="AE174">
+        <v>45</v>
+      </c>
+      <c r="AF174">
+        <v>40</v>
+      </c>
+      <c r="AG174" s="5" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AH174">
+        <v>35</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" ht="16">
+      <c r="B175" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E175" t="s">
+        <v>572</v>
+      </c>
+      <c r="F175">
+        <v>23</v>
+      </c>
+      <c r="G175">
+        <v>77</v>
+      </c>
+      <c r="H175">
+        <v>215</v>
+      </c>
+      <c r="I175" t="s">
+        <v>27</v>
+      </c>
+      <c r="J175" t="s">
+        <v>27</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L175" t="s">
+        <v>287</v>
+      </c>
+      <c r="M175" s="6" t="s">
+        <v>3204</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>3205</v>
+      </c>
+      <c r="O175" t="s">
+        <v>62</v>
+      </c>
+      <c r="P175" s="5" t="s">
+        <v>3206</v>
+      </c>
+      <c r="Q175">
+        <v>50</v>
+      </c>
+      <c r="X175" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y175" s="5" t="s">
+        <v>3207</v>
+      </c>
+      <c r="Z175">
+        <v>50</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB175" s="5" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AC175">
+        <v>40</v>
+      </c>
+      <c r="AD175" s="5" t="s">
+        <v>3209</v>
+      </c>
+      <c r="AE175">
+        <v>55</v>
+      </c>
+      <c r="AF175">
+        <v>50</v>
+      </c>
+      <c r="AG175" s="5" t="s">
+        <v>3210</v>
+      </c>
+      <c r="AH175">
+        <v>35</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35" ht="16">
+      <c r="B176" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C176" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E176" t="s">
+        <v>417</v>
+      </c>
+      <c r="F176">
+        <v>23</v>
+      </c>
+      <c r="G176">
+        <v>75</v>
+      </c>
+      <c r="H176">
+        <v>190</v>
+      </c>
+      <c r="I176" t="s">
+        <v>27</v>
+      </c>
+      <c r="J176" t="s">
+        <v>27</v>
+      </c>
+      <c r="K176" t="s">
+        <v>3170</v>
+      </c>
+      <c r="L176">
+        <v>2023</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>3228</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>3229</v>
+      </c>
+      <c r="O176" t="s">
+        <v>62</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>3230</v>
+      </c>
+      <c r="Q176">
+        <v>45</v>
+      </c>
+      <c r="U176" t="s">
+        <v>66</v>
+      </c>
+      <c r="V176" s="5" t="s">
+        <v>3231</v>
+      </c>
+      <c r="W176">
+        <v>40</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB176" s="6" t="s">
+        <v>3232</v>
+      </c>
+      <c r="AC176">
+        <v>45</v>
+      </c>
+      <c r="AD176" s="5" t="s">
+        <v>3233</v>
+      </c>
+      <c r="AE176">
+        <v>55</v>
+      </c>
+      <c r="AF176">
+        <v>45</v>
+      </c>
+      <c r="AG176" s="6" t="s">
+        <v>3234</v>
+      </c>
+      <c r="AH176">
+        <v>35</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="2:35" ht="16">
+      <c r="B177" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C177" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177">
+        <v>77</v>
+      </c>
+      <c r="H177">
+        <v>280</v>
+      </c>
+      <c r="I177" t="s">
+        <v>27</v>
+      </c>
+      <c r="J177" t="s">
+        <v>27</v>
+      </c>
+      <c r="K177" t="s">
+        <v>3236</v>
+      </c>
+      <c r="L177">
+        <v>2022</v>
+      </c>
+      <c r="M177" s="5" t="s">
+        <v>3237</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>3238</v>
+      </c>
+      <c r="O177" t="s">
+        <v>62</v>
+      </c>
+      <c r="P177" s="5" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Q177">
+        <v>45</v>
+      </c>
+      <c r="U177" t="s">
+        <v>66</v>
+      </c>
+      <c r="V177" s="5" t="s">
+        <v>3240</v>
+      </c>
+      <c r="W177">
+        <v>40</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB177" s="5" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AC177">
+        <v>50</v>
+      </c>
+      <c r="AD177" s="5" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AE177">
+        <v>50</v>
+      </c>
+      <c r="AF177">
+        <v>40</v>
+      </c>
+      <c r="AG177" s="5" t="s">
+        <v>3243</v>
+      </c>
+      <c r="AH177">
+        <v>35</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="2:35" ht="16">
+      <c r="B178" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F178">
+        <v>24</v>
+      </c>
+      <c r="G178">
+        <v>70</v>
+      </c>
+      <c r="H178">
+        <v>175</v>
+      </c>
+      <c r="I178" t="s">
+        <v>27</v>
+      </c>
+      <c r="J178" t="s">
+        <v>27</v>
+      </c>
+      <c r="K178" t="s">
+        <v>3245</v>
+      </c>
+      <c r="L178">
+        <v>2023</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>3246</v>
+      </c>
+      <c r="N178" s="6" t="s">
+        <v>3247</v>
+      </c>
+      <c r="O178" t="s">
+        <v>62</v>
+      </c>
+      <c r="P178" s="6" t="s">
+        <v>3248</v>
+      </c>
+      <c r="Q178">
+        <v>45</v>
+      </c>
+      <c r="U178" t="s">
+        <v>66</v>
+      </c>
+      <c r="V178" s="5" t="s">
+        <v>3249</v>
+      </c>
+      <c r="W178">
+        <v>50</v>
+      </c>
+      <c r="AD178" s="5" t="s">
+        <v>3250</v>
+      </c>
+      <c r="AE178">
+        <v>60</v>
+      </c>
+      <c r="AF178">
+        <v>50</v>
+      </c>
+      <c r="AG178" s="5" t="s">
+        <v>3251</v>
+      </c>
+      <c r="AH178">
+        <v>35</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="2:35" ht="16">
+      <c r="B179" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C179" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E179" t="s">
+        <v>505</v>
+      </c>
+      <c r="F179">
+        <v>25</v>
+      </c>
+      <c r="G179">
+        <v>77</v>
+      </c>
+      <c r="H179">
+        <v>230</v>
+      </c>
+      <c r="I179" t="s">
+        <v>27</v>
+      </c>
+      <c r="J179" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L179" t="s">
+        <v>58</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>3297</v>
+      </c>
+      <c r="N179" s="5" t="s">
+        <v>3298</v>
+      </c>
+      <c r="O179" t="s">
+        <v>62</v>
+      </c>
+      <c r="P179" s="5" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Q179">
+        <v>55</v>
+      </c>
+      <c r="X179" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y179" s="6" t="s">
+        <v>3300</v>
+      </c>
+      <c r="Z179">
+        <v>60</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB179" s="5" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AC179">
+        <v>45</v>
+      </c>
+      <c r="AD179" s="5" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AE179">
+        <v>45</v>
+      </c>
+      <c r="AF179">
+        <v>45</v>
+      </c>
+      <c r="AG179" s="5" t="s">
+        <v>3303</v>
+      </c>
+      <c r="AH179">
+        <v>50</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="2:35" ht="16">
+      <c r="B180" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E180" t="s">
+        <v>80</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180">
+        <v>78</v>
+      </c>
+      <c r="H180">
+        <v>220</v>
+      </c>
+      <c r="I180" t="s">
+        <v>163</v>
+      </c>
+      <c r="J180" t="s">
+        <v>163</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L180" t="s">
+        <v>287</v>
+      </c>
+      <c r="M180" s="6" t="s">
+        <v>3313</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>3314</v>
+      </c>
+      <c r="O180" t="s">
+        <v>62</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>3315</v>
+      </c>
+      <c r="Q180">
+        <v>55</v>
+      </c>
+      <c r="U180" t="s">
+        <v>66</v>
+      </c>
+      <c r="V180" s="5" t="s">
+        <v>3316</v>
+      </c>
+      <c r="W180">
+        <v>60</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB180" s="5" t="s">
+        <v>3317</v>
+      </c>
+      <c r="AC180">
+        <v>45</v>
+      </c>
+      <c r="AD180" s="5" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AE180">
+        <v>55</v>
+      </c>
+      <c r="AF180">
+        <v>50</v>
+      </c>
+      <c r="AG180" s="5" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AH180">
+        <v>50</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="2:35" ht="16">
+      <c r="B181" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C181" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E181" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F181">
+        <v>22</v>
+      </c>
+      <c r="G181">
+        <v>75</v>
+      </c>
+      <c r="H181">
+        <v>240</v>
+      </c>
+      <c r="I181" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" t="s">
+        <v>27</v>
+      </c>
+      <c r="K181" t="s">
+        <v>144</v>
+      </c>
+      <c r="L181" t="s">
+        <v>287</v>
+      </c>
+      <c r="M181" s="5" t="s">
+        <v>3321</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O181" t="s">
+        <v>62</v>
+      </c>
+      <c r="P181" s="5" t="s">
+        <v>3323</v>
+      </c>
+      <c r="Q181">
+        <v>60</v>
+      </c>
+      <c r="U181" t="s">
+        <v>66</v>
+      </c>
+      <c r="V181" s="5" t="s">
+        <v>3324</v>
+      </c>
+      <c r="W181">
+        <v>55</v>
+      </c>
+      <c r="X181" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y181" s="5" t="s">
+        <v>3325</v>
+      </c>
+      <c r="Z181">
+        <v>50</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB181" s="5" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AC181">
+        <v>40</v>
+      </c>
+      <c r="AD181" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="AE181">
+        <v>45</v>
+      </c>
+      <c r="AF181">
+        <v>40</v>
+      </c>
+      <c r="AG181" s="5" t="s">
+        <v>3328</v>
+      </c>
+      <c r="AH181">
+        <v>50</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="2:35" ht="16">
+      <c r="B182" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C182" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E182" t="s">
+        <v>80</v>
+      </c>
+      <c r="F182">
+        <v>24</v>
+      </c>
+      <c r="G182">
+        <v>76</v>
+      </c>
+      <c r="H182">
+        <v>200</v>
+      </c>
+      <c r="I182" t="s">
+        <v>27</v>
+      </c>
+      <c r="J182" t="s">
+        <v>27</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L182">
+        <v>2022</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>3330</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>3331</v>
+      </c>
+      <c r="O182" t="s">
+        <v>62</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="Q182">
+        <v>60</v>
+      </c>
+      <c r="U182" t="s">
+        <v>66</v>
+      </c>
+      <c r="V182" s="5" t="s">
+        <v>3333</v>
+      </c>
+      <c r="W182">
+        <v>40</v>
+      </c>
+      <c r="X182" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y182" s="5" t="s">
+        <v>3334</v>
+      </c>
+      <c r="Z182">
+        <v>55</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB182" s="5" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC182">
+        <v>50</v>
+      </c>
+      <c r="AD182" s="5" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AE182">
+        <v>55</v>
+      </c>
+      <c r="AF182">
+        <v>50</v>
+      </c>
+      <c r="AG182" s="5" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AH182">
+        <v>50</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183" spans="2:35" ht="16">
+      <c r="B183" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E183" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F183">
+        <v>24</v>
+      </c>
+      <c r="G183">
+        <v>75</v>
+      </c>
+      <c r="H183">
+        <v>182</v>
+      </c>
+      <c r="I183" t="s">
+        <v>27</v>
+      </c>
+      <c r="J183" t="s">
+        <v>27</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2027</v>
+      </c>
+      <c r="L183">
+        <v>2021</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>3347</v>
+      </c>
+      <c r="N183" s="5" t="s">
+        <v>3348</v>
+      </c>
+      <c r="O183" t="s">
+        <v>62</v>
+      </c>
+      <c r="P183" s="6" t="s">
+        <v>3349</v>
+      </c>
+      <c r="Q183">
+        <v>50</v>
+      </c>
+      <c r="R183" t="s">
+        <v>64</v>
+      </c>
+      <c r="S183" s="5" t="s">
+        <v>3350</v>
+      </c>
+      <c r="T183">
+        <v>45</v>
+      </c>
+      <c r="U183" t="s">
+        <v>66</v>
+      </c>
+      <c r="V183" s="5" t="s">
+        <v>3351</v>
+      </c>
+      <c r="W183">
+        <v>30</v>
+      </c>
+      <c r="X183" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y183" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="Z183">
+        <v>60</v>
+      </c>
+      <c r="AD183" s="5" t="s">
+        <v>3353</v>
+      </c>
+      <c r="AE183">
+        <v>50</v>
+      </c>
+      <c r="AF183">
+        <v>40</v>
+      </c>
+      <c r="AG183" s="5" t="s">
+        <v>3354</v>
+      </c>
+      <c r="AH183">
+        <v>45</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="2:35" ht="16">
+      <c r="B184" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C184" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E184" t="s">
+        <v>196</v>
+      </c>
+      <c r="F184">
+        <v>25</v>
+      </c>
+      <c r="G184">
+        <v>74</v>
+      </c>
+      <c r="H184">
+        <v>190</v>
+      </c>
+      <c r="I184" t="s">
+        <v>27</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" t="s">
+        <v>3397</v>
+      </c>
+      <c r="L184" t="s">
+        <v>287</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>3398</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>3399</v>
+      </c>
+      <c r="O184" t="s">
+        <v>62</v>
+      </c>
+      <c r="P184" s="6" t="s">
+        <v>3400</v>
+      </c>
+      <c r="Q184">
+        <v>45</v>
+      </c>
+      <c r="X184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y184" s="5" t="s">
+        <v>3401</v>
+      </c>
+      <c r="Z184">
+        <v>50</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB184" s="5" t="s">
+        <v>3402</v>
+      </c>
+      <c r="AC184">
+        <v>55</v>
+      </c>
+      <c r="AD184" s="5" t="s">
+        <v>3403</v>
+      </c>
+      <c r="AE184">
+        <v>60</v>
+      </c>
+      <c r="AF184">
+        <v>55</v>
+      </c>
+      <c r="AG184" s="5" t="s">
+        <v>3404</v>
+      </c>
+      <c r="AH184">
+        <v>40</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="2:35" ht="16">
+      <c r="B185" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C185" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E185" t="s">
+        <v>80</v>
+      </c>
+      <c r="F185">
+        <v>22</v>
+      </c>
+      <c r="G185">
+        <v>72</v>
+      </c>
+      <c r="H185">
+        <v>185</v>
+      </c>
+      <c r="I185" t="s">
+        <v>175</v>
+      </c>
+      <c r="J185" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" t="s">
+        <v>176</v>
+      </c>
+      <c r="L185">
+        <v>2023</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>3415</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>3416</v>
+      </c>
+      <c r="O185" t="s">
+        <v>62</v>
+      </c>
+      <c r="P185" s="5" t="s">
+        <v>3417</v>
+      </c>
+      <c r="Q185">
+        <v>55</v>
+      </c>
+      <c r="U185" t="s">
+        <v>773</v>
+      </c>
+      <c r="V185" s="5" t="s">
+        <v>3420</v>
+      </c>
+      <c r="W185">
+        <v>40</v>
+      </c>
+      <c r="X185" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y185" s="5" t="s">
+        <v>3418</v>
+      </c>
+      <c r="Z185">
+        <v>50</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB185" s="5" t="s">
+        <v>3419</v>
+      </c>
+      <c r="AC185">
+        <v>40</v>
+      </c>
+      <c r="AD185" s="5" t="s">
+        <v>3421</v>
+      </c>
+      <c r="AE185">
+        <v>50</v>
+      </c>
+      <c r="AF185">
+        <v>40</v>
+      </c>
+      <c r="AG185" s="5" t="s">
+        <v>3422</v>
+      </c>
+      <c r="AH185">
+        <v>40</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="2:35" ht="16">
+      <c r="B186" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C186" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E186" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F186">
+        <v>22</v>
+      </c>
+      <c r="G186">
+        <v>73</v>
+      </c>
+      <c r="H186">
+        <v>170</v>
+      </c>
+      <c r="I186" t="s">
+        <v>27</v>
+      </c>
+      <c r="J186" t="s">
+        <v>27</v>
+      </c>
+      <c r="K186" t="s">
+        <v>90</v>
+      </c>
+      <c r="L186">
+        <v>2021</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>3440</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>3441</v>
+      </c>
+      <c r="O186" t="s">
+        <v>62</v>
+      </c>
+      <c r="P186" s="6" t="s">
+        <v>3442</v>
+      </c>
+      <c r="Q186">
+        <v>55</v>
+      </c>
+      <c r="X186" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y186" s="5" t="s">
+        <v>3443</v>
+      </c>
+      <c r="Z186">
+        <v>50</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB186" s="5" t="s">
+        <v>3444</v>
+      </c>
+      <c r="AC186">
+        <v>40</v>
+      </c>
+      <c r="AD186" s="5" t="s">
+        <v>3445</v>
+      </c>
+      <c r="AE186">
+        <v>50</v>
+      </c>
+      <c r="AF186">
+        <v>40</v>
+      </c>
+      <c r="AG186" s="5" t="s">
+        <v>3446</v>
+      </c>
+      <c r="AH186">
+        <v>40</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="187" spans="2:35" ht="16">
+      <c r="B187" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C187" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E187" t="s">
+        <v>196</v>
+      </c>
+      <c r="F187">
+        <v>23</v>
+      </c>
+      <c r="G187">
+        <v>77</v>
+      </c>
+      <c r="H187">
+        <v>225</v>
+      </c>
+      <c r="I187" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" t="s">
+        <v>27</v>
+      </c>
+      <c r="K187" t="s">
+        <v>3448</v>
+      </c>
+      <c r="L187">
+        <v>2022</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>3449</v>
+      </c>
+      <c r="N187" s="5" t="s">
+        <v>3450</v>
+      </c>
+      <c r="O187" t="s">
+        <v>62</v>
+      </c>
+      <c r="P187" s="6" t="s">
+        <v>3451</v>
+      </c>
+      <c r="Q187">
+        <v>60</v>
+      </c>
+      <c r="X187" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y187" s="5" t="s">
+        <v>3452</v>
+      </c>
+      <c r="Z187">
+        <v>50</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB187" s="5" t="s">
+        <v>3453</v>
+      </c>
+      <c r="AC187">
+        <v>45</v>
+      </c>
+      <c r="AD187" s="5" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AE187">
+        <v>40</v>
+      </c>
+      <c r="AF187">
+        <v>30</v>
+      </c>
+      <c r="AG187" s="5" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AH187">
+        <v>40</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188" spans="2:35" ht="16">
+      <c r="B188" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C188" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E188" t="s">
+        <v>196</v>
+      </c>
+      <c r="F188">
+        <v>22</v>
+      </c>
+      <c r="G188">
+        <v>73</v>
+      </c>
+      <c r="H188">
+        <v>190</v>
+      </c>
+      <c r="I188" t="s">
+        <v>27</v>
+      </c>
+      <c r="J188" t="s">
+        <v>27</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L188">
+        <v>2022</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>3457</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>3458</v>
+      </c>
+      <c r="O188" t="s">
+        <v>62</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>3459</v>
+      </c>
+      <c r="Q188">
+        <v>50</v>
+      </c>
+      <c r="X188" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y188" s="5" t="s">
+        <v>3460</v>
+      </c>
+      <c r="Z188">
+        <v>50</v>
+      </c>
+      <c r="AD188" s="6" t="s">
+        <v>3461</v>
+      </c>
+      <c r="AE188">
+        <v>40</v>
+      </c>
+      <c r="AF188">
+        <v>30</v>
+      </c>
+      <c r="AG188" s="5" t="s">
+        <v>3462</v>
+      </c>
+      <c r="AH188">
+        <v>40</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="2:35" ht="16">
+      <c r="B189" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C189" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E189" t="s">
+        <v>80</v>
+      </c>
+      <c r="F189">
+        <v>23</v>
+      </c>
+      <c r="G189">
+        <v>73</v>
+      </c>
+      <c r="H189">
+        <v>175</v>
+      </c>
+      <c r="I189" t="s">
+        <v>163</v>
+      </c>
+      <c r="J189" t="s">
+        <v>163</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L189">
+        <v>2022</v>
+      </c>
+      <c r="M189" s="5" t="s">
+        <v>3464</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O189" t="s">
+        <v>62</v>
+      </c>
+      <c r="P189" s="5" t="s">
+        <v>3466</v>
+      </c>
+      <c r="Q189">
+        <v>50</v>
+      </c>
+      <c r="U189" t="s">
+        <v>66</v>
+      </c>
+      <c r="V189" s="5" t="s">
+        <v>3467</v>
+      </c>
+      <c r="W189">
+        <v>45</v>
+      </c>
+      <c r="X189" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y189" s="5" t="s">
+        <v>3468</v>
+      </c>
+      <c r="Z189">
+        <v>45</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB189" s="5" t="s">
+        <v>3469</v>
+      </c>
+      <c r="AC189">
+        <v>55</v>
+      </c>
+      <c r="AD189" s="5" t="s">
+        <v>3470</v>
+      </c>
+      <c r="AE189">
+        <v>50</v>
+      </c>
+      <c r="AF189">
+        <v>40</v>
+      </c>
+      <c r="AG189" s="5" t="s">
+        <v>3471</v>
+      </c>
+      <c r="AH189">
+        <v>40</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="2:35">
+      <c r="B190" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C190" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3278</v>
       </c>
     </row>
   </sheetData>
